--- a/Daily Time.xlsx
+++ b/Daily Time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptwenergy-my.sharepoint.com/personal/amiller_ptwenergy_com/Documents/Apps/Power Apps Spreadsheets/Daily Timesheet App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02271ef1bb6280a/timesheet_app_full_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{07427CD4-4566-45EE-A656-4DC6908D7545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EAA0FB5-119C-48BE-B271-2F2025264D76}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{07427CD4-4566-45EE-A656-4DC6908D7545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA7A0D3-5339-477C-A680-46F9FFEBA4CF}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{75D2E01E-61BD-4BA0-9A85-A7795DC17DD7}"/>
   </bookViews>
@@ -485,7 +485,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,22 +615,13 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad 2" xfId="2" xr:uid="{A69F678E-9668-4F63-84BB-4BCE7D77CE8F}"/>
@@ -1200,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7781BEA7-B255-4471-80F7-1B7A8DE511E7}">
   <dimension ref="A2:T512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D267" sqref="D267"/>
+    <sheetView tabSelected="1" topLeftCell="G229" workbookViewId="0">
+      <selection activeCell="K239" sqref="K239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,10 +1258,10 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1364,14 +1355,23 @@
       <c r="G8" s="22"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="J8" s="25">
+        <f>SUM(H8:I8)</f>
+        <v>0</v>
+      </c>
       <c r="K8" s="26"/>
       <c r="L8" s="27"/>
       <c r="M8" s="26"/>
       <c r="N8" s="28"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="30">
+        <f>SUM(N8:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="31">
+        <f>SUM(P8,J8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -1383,14 +1383,23 @@
       <c r="G9" s="22"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="J9" s="25">
+        <f t="shared" ref="J9:J30" si="0">SUM(H9:I9)</f>
+        <v>0</v>
+      </c>
       <c r="K9" s="26"/>
       <c r="L9" s="27"/>
       <c r="M9" s="26"/>
       <c r="N9" s="28"/>
       <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="30">
+        <f t="shared" ref="P9:P30" si="1">SUM(N9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="31">
+        <f t="shared" ref="Q9:Q30" si="2">SUM(P9,J9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -1402,14 +1411,23 @@
       <c r="G10" s="22"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K10" s="26"/>
       <c r="L10" s="27"/>
       <c r="M10" s="26"/>
       <c r="N10" s="28"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
+      <c r="P10" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1421,14 +1439,23 @@
       <c r="G11" s="22"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="J11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K11" s="26"/>
       <c r="L11" s="27"/>
       <c r="M11" s="26"/>
       <c r="N11" s="28"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="P11" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -1440,14 +1467,23 @@
       <c r="G12" s="22"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K12" s="26"/>
       <c r="L12" s="27"/>
       <c r="M12" s="26"/>
       <c r="N12" s="28"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
+      <c r="P12" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -1459,14 +1495,23 @@
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K13" s="26"/>
       <c r="L13" s="27"/>
       <c r="M13" s="26"/>
       <c r="N13" s="28"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -1478,14 +1523,23 @@
       <c r="G14" s="22"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K14" s="26"/>
       <c r="L14" s="27"/>
       <c r="M14" s="26"/>
       <c r="N14" s="28"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
@@ -1497,14 +1551,23 @@
       <c r="G15" s="22"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="J15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K15" s="26"/>
       <c r="L15" s="27"/>
       <c r="M15" s="26"/>
       <c r="N15" s="28"/>
       <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
+      <c r="P15" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -1516,14 +1579,23 @@
       <c r="G16" s="22"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K16" s="26"/>
       <c r="L16" s="27"/>
       <c r="M16" s="26"/>
       <c r="N16" s="28"/>
       <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="P16" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -1535,14 +1607,23 @@
       <c r="G17" s="22"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K17" s="26"/>
       <c r="L17" s="27"/>
       <c r="M17" s="26"/>
       <c r="N17" s="28"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
+      <c r="P17" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -1554,14 +1635,23 @@
       <c r="G18" s="22"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K18" s="26"/>
       <c r="L18" s="27"/>
       <c r="M18" s="26"/>
       <c r="N18" s="28"/>
       <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
+      <c r="P18" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1573,14 +1663,23 @@
       <c r="G19" s="22"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K19" s="26"/>
       <c r="L19" s="27"/>
       <c r="M19" s="26"/>
       <c r="N19" s="28"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -1592,14 +1691,23 @@
       <c r="G20" s="22"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K20" s="26"/>
       <c r="L20" s="27"/>
       <c r="M20" s="26"/>
       <c r="N20" s="28"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -1611,14 +1719,23 @@
       <c r="G21" s="22"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K21" s="26"/>
       <c r="L21" s="27"/>
       <c r="M21" s="26"/>
       <c r="N21" s="28"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -1630,14 +1747,23 @@
       <c r="G22" s="22"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K22" s="26"/>
       <c r="L22" s="27"/>
       <c r="M22" s="26"/>
       <c r="N22" s="28"/>
       <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
@@ -1649,14 +1775,23 @@
       <c r="G23" s="22"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
+      <c r="J23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K23" s="26"/>
       <c r="L23" s="27"/>
       <c r="M23" s="26"/>
       <c r="N23" s="28"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
@@ -1668,14 +1803,23 @@
       <c r="G24" s="22"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="26"/>
       <c r="L24" s="27"/>
       <c r="M24" s="26"/>
       <c r="N24" s="28"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
@@ -1687,14 +1831,23 @@
       <c r="G25" s="22"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
       <c r="M25" s="26"/>
       <c r="N25" s="33"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31"/>
+      <c r="P25" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
@@ -1706,14 +1859,23 @@
       <c r="G26" s="22"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
+      <c r="J26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K26" s="26"/>
       <c r="L26" s="27"/>
       <c r="M26" s="26"/>
       <c r="N26" s="33"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
@@ -1725,14 +1887,23 @@
       <c r="G27" s="22"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K27" s="26"/>
       <c r="L27" s="27"/>
       <c r="M27" s="26"/>
       <c r="N27" s="33"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31"/>
+      <c r="P27" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -1744,14 +1915,23 @@
       <c r="G28" s="22"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="26"/>
       <c r="L28" s="27"/>
       <c r="M28" s="26"/>
       <c r="N28" s="33"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31"/>
+      <c r="P28" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -1763,14 +1943,23 @@
       <c r="G29" s="22"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
+      <c r="J29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K29" s="26"/>
       <c r="L29" s="27"/>
       <c r="M29" s="26"/>
       <c r="N29" s="33"/>
       <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
+      <c r="P29" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
@@ -1782,14 +1971,23 @@
       <c r="G30" s="22"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K30" s="26"/>
       <c r="L30" s="27"/>
       <c r="M30" s="26"/>
       <c r="N30" s="33"/>
       <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
+      <c r="P30" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -1854,14 +2052,23 @@
       <c r="G32" s="22"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="25">
+        <f>SUM(H32:I32)</f>
+        <v>0</v>
+      </c>
       <c r="K32" s="26"/>
       <c r="L32" s="23"/>
       <c r="M32" s="22"/>
       <c r="N32" s="35"/>
       <c r="O32" s="24"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="31"/>
+      <c r="P32" s="30">
+        <f>SUM(N32:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="31">
+        <f>SUM(P32,J32)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
@@ -1873,14 +2080,23 @@
       <c r="G33" s="22"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="25">
+        <f t="shared" ref="J33:J96" si="3">SUM(H33:I33)</f>
+        <v>0</v>
+      </c>
       <c r="K33" s="26"/>
       <c r="L33" s="23"/>
       <c r="M33" s="26"/>
       <c r="N33" s="35"/>
       <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="31"/>
+      <c r="P33" s="30">
+        <f t="shared" ref="P33:P96" si="4">SUM(N33:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="31">
+        <f t="shared" ref="Q33:Q96" si="5">SUM(P33,J33)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
@@ -1892,14 +2108,23 @@
       <c r="G34" s="22"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
+      <c r="J34" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K34" s="26"/>
       <c r="L34" s="23"/>
       <c r="M34" s="26"/>
       <c r="N34" s="35"/>
       <c r="O34" s="29"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31"/>
+      <c r="P34" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -1911,14 +2136,23 @@
       <c r="G35" s="22"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
+      <c r="J35" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K35" s="26"/>
       <c r="L35" s="23"/>
       <c r="M35" s="26"/>
       <c r="N35" s="35"/>
       <c r="O35" s="29"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="31"/>
+      <c r="P35" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S35" s="36"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -1931,14 +2165,23 @@
       <c r="G36" s="22"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
+      <c r="J36" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K36" s="26"/>
       <c r="L36" s="23"/>
       <c r="M36" s="26"/>
       <c r="N36" s="35"/>
       <c r="O36" s="29"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="31"/>
+      <c r="P36" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S36" s="36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -1951,14 +2194,23 @@
       <c r="G37" s="22"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
+      <c r="J37" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K37" s="26"/>
       <c r="L37" s="23"/>
       <c r="M37" s="26"/>
       <c r="N37" s="35"/>
       <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="31"/>
+      <c r="P37" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S37" s="36"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -1971,14 +2223,23 @@
       <c r="G38" s="22"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
+      <c r="J38" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K38" s="26"/>
       <c r="L38" s="23"/>
       <c r="M38" s="26"/>
       <c r="N38" s="35"/>
       <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="31"/>
+      <c r="P38" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S38" s="36"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -1991,14 +2252,23 @@
       <c r="G39" s="22"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
+      <c r="J39" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K39" s="26"/>
       <c r="L39" s="23"/>
       <c r="M39" s="26"/>
       <c r="N39" s="35"/>
       <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="31"/>
+      <c r="P39" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S39" s="36"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -2011,14 +2281,23 @@
       <c r="G40" s="22"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
+      <c r="J40" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K40" s="26"/>
       <c r="L40" s="27"/>
       <c r="M40" s="26"/>
       <c r="N40" s="35"/>
       <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="31"/>
+      <c r="P40" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S40" s="36"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -2031,14 +2310,23 @@
       <c r="G41" s="22"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
+      <c r="J41" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K41" s="26"/>
       <c r="L41" s="27"/>
       <c r="M41" s="26"/>
       <c r="N41" s="35"/>
       <c r="O41" s="29"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31"/>
+      <c r="P41" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S41" s="36"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -2051,14 +2339,23 @@
       <c r="G42" s="22"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-      <c r="J42" s="25"/>
+      <c r="J42" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K42" s="26"/>
       <c r="L42" s="27"/>
       <c r="M42" s="26"/>
       <c r="N42" s="35"/>
       <c r="O42" s="29"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="31"/>
+      <c r="P42" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S42" s="36"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -2071,14 +2368,23 @@
       <c r="G43" s="22"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
+      <c r="J43" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K43" s="26"/>
       <c r="L43" s="27"/>
       <c r="M43" s="26"/>
       <c r="N43" s="35"/>
       <c r="O43" s="29"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="31"/>
+      <c r="P43" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -2091,14 +2397,23 @@
       <c r="G44" s="22"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="25"/>
+      <c r="J44" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K44" s="26"/>
       <c r="L44" s="27"/>
       <c r="M44" s="26"/>
       <c r="N44" s="35"/>
       <c r="O44" s="29"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="31"/>
+      <c r="P44" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S44" s="36"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -2111,14 +2426,23 @@
       <c r="G45" s="22"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
+      <c r="J45" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K45" s="26"/>
       <c r="L45" s="27"/>
       <c r="M45" s="26"/>
       <c r="N45" s="35"/>
       <c r="O45" s="29"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="31"/>
+      <c r="P45" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S45" s="36"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -2131,14 +2455,23 @@
       <c r="G46" s="22"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
+      <c r="J46" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K46" s="26"/>
       <c r="L46" s="27"/>
       <c r="M46" s="26"/>
       <c r="N46" s="35"/>
       <c r="O46" s="29"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="31"/>
+      <c r="P46" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S46" s="36"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -2151,14 +2484,23 @@
       <c r="G47" s="22"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
-      <c r="J47" s="25"/>
+      <c r="J47" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K47" s="26"/>
       <c r="L47" s="27"/>
       <c r="M47" s="26"/>
       <c r="N47" s="35"/>
       <c r="O47" s="29"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="31"/>
+      <c r="P47" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S47" s="36"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -2171,14 +2513,23 @@
       <c r="G48" s="22"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
+      <c r="J48" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K48" s="26"/>
       <c r="L48" s="27"/>
       <c r="M48" s="26"/>
       <c r="N48" s="35"/>
       <c r="O48" s="29"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="31"/>
+      <c r="P48" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S48" s="36"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -2191,14 +2542,23 @@
       <c r="G49" s="22"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
+      <c r="J49" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K49" s="26"/>
       <c r="L49" s="27"/>
       <c r="M49" s="26"/>
       <c r="N49" s="35"/>
       <c r="O49" s="29"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="31"/>
+      <c r="P49" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S49" s="36"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -2211,14 +2571,23 @@
       <c r="G50" s="22"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
+      <c r="J50" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K50" s="26"/>
       <c r="L50" s="27"/>
       <c r="M50" s="26"/>
       <c r="N50" s="35"/>
       <c r="O50" s="29"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="31"/>
+      <c r="P50" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S50" s="36"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -2231,14 +2600,23 @@
       <c r="G51" s="22"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
+      <c r="J51" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K51" s="26"/>
       <c r="L51" s="27"/>
       <c r="M51" s="26"/>
       <c r="N51" s="35"/>
       <c r="O51" s="29"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="31"/>
+      <c r="P51" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S51" s="36"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -2251,14 +2629,23 @@
       <c r="G52" s="22"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
+      <c r="J52" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K52" s="26"/>
       <c r="L52" s="27"/>
       <c r="M52" s="26"/>
       <c r="N52" s="35"/>
       <c r="O52" s="29"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="31"/>
+      <c r="P52" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S52" s="36"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -2271,14 +2658,23 @@
       <c r="G53" s="22"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-      <c r="J53" s="25"/>
+      <c r="J53" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K53" s="26"/>
       <c r="L53" s="27"/>
       <c r="M53" s="26"/>
       <c r="N53" s="35"/>
       <c r="O53" s="29"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="31"/>
+      <c r="P53" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S53" s="36"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -2291,14 +2687,23 @@
       <c r="G54" s="22"/>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
+      <c r="J54" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K54" s="26"/>
       <c r="L54" s="27"/>
       <c r="M54" s="26"/>
       <c r="N54" s="35"/>
       <c r="O54" s="29"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="31"/>
+      <c r="P54" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S54" s="36"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -2311,14 +2716,23 @@
       <c r="G55" s="22"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
-      <c r="J55" s="25"/>
+      <c r="J55" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K55" s="26"/>
       <c r="L55" s="27"/>
       <c r="M55" s="26"/>
       <c r="N55" s="35"/>
       <c r="O55" s="29"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="31"/>
+      <c r="P55" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S55" s="36"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -2331,14 +2745,23 @@
       <c r="G56" s="22"/>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
-      <c r="J56" s="25"/>
+      <c r="J56" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K56" s="26"/>
       <c r="L56" s="27"/>
       <c r="M56" s="26"/>
       <c r="N56" s="35"/>
       <c r="O56" s="29"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="31"/>
+      <c r="P56" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S56" s="36"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -2351,14 +2774,23 @@
       <c r="G57" s="22"/>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
+      <c r="J57" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K57" s="26"/>
       <c r="L57" s="27"/>
       <c r="M57" s="26"/>
       <c r="N57" s="35"/>
       <c r="O57" s="29"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="31"/>
+      <c r="P57" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S57" s="36"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -2371,14 +2803,23 @@
       <c r="G58" s="22"/>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
-      <c r="J58" s="25"/>
+      <c r="J58" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K58" s="26"/>
       <c r="L58" s="27"/>
       <c r="M58" s="26"/>
       <c r="N58" s="35"/>
       <c r="O58" s="29"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="31"/>
+      <c r="P58" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S58" s="36"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -2391,14 +2832,23 @@
       <c r="G59" s="22"/>
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
+      <c r="J59" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K59" s="26"/>
       <c r="L59" s="27"/>
       <c r="M59" s="26"/>
       <c r="N59" s="35"/>
       <c r="O59" s="29"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="31"/>
+      <c r="P59" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S59" s="36"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -2411,14 +2861,23 @@
       <c r="G60" s="22"/>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
-      <c r="J60" s="25"/>
+      <c r="J60" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K60" s="26"/>
       <c r="L60" s="27"/>
       <c r="M60" s="26"/>
       <c r="N60" s="35"/>
       <c r="O60" s="29"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="31"/>
+      <c r="P60" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S60" s="36"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -2431,14 +2890,23 @@
       <c r="G61" s="22"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
-      <c r="J61" s="25"/>
+      <c r="J61" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K61" s="26"/>
       <c r="L61" s="27"/>
       <c r="M61" s="26"/>
       <c r="N61" s="35"/>
       <c r="O61" s="29"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="31"/>
+      <c r="P61" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S61" s="36"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -2451,14 +2919,23 @@
       <c r="G62" s="22"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
-      <c r="J62" s="25"/>
+      <c r="J62" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K62" s="26"/>
       <c r="L62" s="27"/>
       <c r="M62" s="26"/>
       <c r="N62" s="35"/>
       <c r="O62" s="29"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="31"/>
+      <c r="P62" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S62" s="36"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -2471,14 +2948,23 @@
       <c r="G63" s="22"/>
       <c r="H63" s="24"/>
       <c r="I63" s="24"/>
-      <c r="J63" s="25"/>
+      <c r="J63" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K63" s="26"/>
       <c r="L63" s="27"/>
       <c r="M63" s="26"/>
       <c r="N63" s="35"/>
       <c r="O63" s="29"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="31"/>
+      <c r="P63" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S63" s="36"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -2491,14 +2977,23 @@
       <c r="G64" s="22"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-      <c r="J64" s="25"/>
+      <c r="J64" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K64" s="26"/>
       <c r="L64" s="27"/>
       <c r="M64" s="26"/>
       <c r="N64" s="35"/>
       <c r="O64" s="29"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="31"/>
+      <c r="P64" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S64" s="36"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -2511,14 +3006,23 @@
       <c r="G65" s="22"/>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
+      <c r="J65" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K65" s="26"/>
       <c r="L65" s="27"/>
       <c r="M65" s="26"/>
       <c r="N65" s="35"/>
       <c r="O65" s="29"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="31"/>
+      <c r="P65" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S65" s="36"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -2531,14 +3035,23 @@
       <c r="G66" s="22"/>
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
+      <c r="J66" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K66" s="26"/>
       <c r="L66" s="27"/>
       <c r="M66" s="26"/>
       <c r="N66" s="35"/>
       <c r="O66" s="29"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="31"/>
+      <c r="P66" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S66" s="36"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -2551,14 +3064,23 @@
       <c r="G67" s="22"/>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
-      <c r="J67" s="25"/>
+      <c r="J67" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K67" s="26"/>
       <c r="L67" s="27"/>
       <c r="M67" s="26"/>
       <c r="N67" s="35"/>
       <c r="O67" s="29"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="31"/>
+      <c r="P67" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S67" s="36"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -2571,14 +3093,23 @@
       <c r="G68" s="22"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24"/>
-      <c r="J68" s="25"/>
+      <c r="J68" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K68" s="26"/>
       <c r="L68" s="27"/>
       <c r="M68" s="26"/>
       <c r="N68" s="35"/>
       <c r="O68" s="29"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="31"/>
+      <c r="P68" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S68" s="36"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -2591,14 +3122,23 @@
       <c r="G69" s="22"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
-      <c r="J69" s="25"/>
+      <c r="J69" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K69" s="26"/>
       <c r="L69" s="27"/>
       <c r="M69" s="26"/>
       <c r="N69" s="35"/>
       <c r="O69" s="29"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="31"/>
+      <c r="P69" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S69" s="36"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -2611,14 +3151,23 @@
       <c r="G70" s="22"/>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
-      <c r="J70" s="25"/>
+      <c r="J70" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K70" s="26"/>
       <c r="L70" s="27"/>
       <c r="M70" s="26"/>
       <c r="N70" s="35"/>
       <c r="O70" s="29"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="31"/>
+      <c r="P70" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S70" s="36"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -2631,14 +3180,23 @@
       <c r="G71" s="22"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
+      <c r="J71" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K71" s="26"/>
       <c r="L71" s="27"/>
       <c r="M71" s="26"/>
       <c r="N71" s="35"/>
       <c r="O71" s="29"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="31"/>
+      <c r="P71" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S71" s="36"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -2651,14 +3209,23 @@
       <c r="G72" s="22"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
-      <c r="J72" s="25"/>
+      <c r="J72" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K72" s="26"/>
       <c r="L72" s="27"/>
       <c r="M72" s="26"/>
       <c r="N72" s="35"/>
       <c r="O72" s="29"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="31"/>
+      <c r="P72" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S72" s="36"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -2671,14 +3238,23 @@
       <c r="G73" s="22"/>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
-      <c r="J73" s="25"/>
+      <c r="J73" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K73" s="26"/>
       <c r="L73" s="27"/>
       <c r="M73" s="26"/>
       <c r="N73" s="35"/>
       <c r="O73" s="29"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="31"/>
+      <c r="P73" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S73" s="36"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -2691,14 +3267,23 @@
       <c r="G74" s="22"/>
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
-      <c r="J74" s="25"/>
+      <c r="J74" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K74" s="26"/>
       <c r="L74" s="27"/>
       <c r="M74" s="26"/>
       <c r="N74" s="35"/>
       <c r="O74" s="29"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="31"/>
+      <c r="P74" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S74" s="36"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -2711,14 +3296,23 @@
       <c r="G75" s="22"/>
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
-      <c r="J75" s="25"/>
+      <c r="J75" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K75" s="26"/>
       <c r="L75" s="27"/>
       <c r="M75" s="26"/>
       <c r="N75" s="35"/>
       <c r="O75" s="29"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="31"/>
+      <c r="P75" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S75" s="36"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -2731,14 +3325,23 @@
       <c r="G76" s="22"/>
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
-      <c r="J76" s="25"/>
+      <c r="J76" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K76" s="26"/>
       <c r="L76" s="27"/>
       <c r="M76" s="26"/>
       <c r="N76" s="35"/>
       <c r="O76" s="29"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="31"/>
+      <c r="P76" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S76" s="36"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -2751,14 +3354,23 @@
       <c r="G77" s="22"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
-      <c r="J77" s="25"/>
+      <c r="J77" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K77" s="26"/>
       <c r="L77" s="27"/>
       <c r="M77" s="26"/>
       <c r="N77" s="35"/>
       <c r="O77" s="29"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="31"/>
+      <c r="P77" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S77" s="36"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -2771,14 +3383,23 @@
       <c r="G78" s="22"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
-      <c r="J78" s="25"/>
+      <c r="J78" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K78" s="26"/>
       <c r="L78" s="27"/>
       <c r="M78" s="26"/>
       <c r="N78" s="35"/>
       <c r="O78" s="29"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="31"/>
+      <c r="P78" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S78" s="36"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -2791,14 +3412,23 @@
       <c r="G79" s="22"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
-      <c r="J79" s="25"/>
+      <c r="J79" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K79" s="26"/>
       <c r="L79" s="27"/>
       <c r="M79" s="26"/>
       <c r="N79" s="35"/>
       <c r="O79" s="29"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="31"/>
+      <c r="P79" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S79" s="36"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -2811,14 +3441,23 @@
       <c r="G80" s="22"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
-      <c r="J80" s="25"/>
+      <c r="J80" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K80" s="26"/>
       <c r="L80" s="27"/>
       <c r="M80" s="26"/>
       <c r="N80" s="35"/>
       <c r="O80" s="29"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="31"/>
+      <c r="P80" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S80" s="36"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -2831,14 +3470,23 @@
       <c r="G81" s="22"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
-      <c r="J81" s="25"/>
+      <c r="J81" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K81" s="26"/>
       <c r="L81" s="27"/>
       <c r="M81" s="26"/>
       <c r="N81" s="35"/>
       <c r="O81" s="29"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="31"/>
+      <c r="P81" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S81" s="36"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -2851,14 +3499,23 @@
       <c r="G82" s="22"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
-      <c r="J82" s="25"/>
+      <c r="J82" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="35"/>
       <c r="O82" s="29"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="31"/>
+      <c r="P82" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S82" s="36"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -2871,14 +3528,23 @@
       <c r="G83" s="22"/>
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
-      <c r="J83" s="25"/>
+      <c r="J83" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K83" s="26"/>
       <c r="L83" s="27"/>
       <c r="M83" s="26"/>
       <c r="N83" s="35"/>
       <c r="O83" s="29"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="31"/>
+      <c r="P83" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S83" s="36"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -2891,14 +3557,23 @@
       <c r="G84" s="22"/>
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
+      <c r="J84" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K84" s="26"/>
       <c r="L84" s="27"/>
       <c r="M84" s="26"/>
       <c r="N84" s="35"/>
       <c r="O84" s="29"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="31"/>
+      <c r="P84" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S84" s="36"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -2911,14 +3586,23 @@
       <c r="G85" s="22"/>
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
-      <c r="J85" s="25"/>
+      <c r="J85" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="26"/>
       <c r="L85" s="27"/>
       <c r="M85" s="26"/>
       <c r="N85" s="35"/>
       <c r="O85" s="29"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="31"/>
+      <c r="P85" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S85" s="36"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -2931,14 +3615,23 @@
       <c r="G86" s="22"/>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
-      <c r="J86" s="25"/>
+      <c r="J86" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K86" s="26"/>
       <c r="L86" s="27"/>
       <c r="M86" s="26"/>
       <c r="N86" s="35"/>
       <c r="O86" s="29"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="31"/>
+      <c r="P86" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S86" s="36"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -2951,14 +3644,23 @@
       <c r="G87" s="22"/>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
-      <c r="J87" s="25"/>
+      <c r="J87" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K87" s="26"/>
       <c r="L87" s="27"/>
       <c r="M87" s="26"/>
       <c r="N87" s="35"/>
       <c r="O87" s="29"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="31"/>
+      <c r="P87" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S87" s="36"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -2971,14 +3673,23 @@
       <c r="G88" s="22"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
-      <c r="J88" s="25"/>
+      <c r="J88" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K88" s="26"/>
       <c r="L88" s="27"/>
       <c r="M88" s="26"/>
       <c r="N88" s="35"/>
       <c r="O88" s="29"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="31"/>
+      <c r="P88" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S88" s="36"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -2991,14 +3702,23 @@
       <c r="G89" s="22"/>
       <c r="H89" s="24"/>
       <c r="I89" s="24"/>
-      <c r="J89" s="25"/>
+      <c r="J89" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K89" s="26"/>
       <c r="L89" s="27"/>
       <c r="M89" s="26"/>
       <c r="N89" s="35"/>
       <c r="O89" s="29"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="31"/>
+      <c r="P89" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S89" s="36"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -3011,14 +3731,23 @@
       <c r="G90" s="22"/>
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
-      <c r="J90" s="25"/>
+      <c r="J90" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K90" s="26"/>
       <c r="L90" s="27"/>
       <c r="M90" s="26"/>
       <c r="N90" s="35"/>
       <c r="O90" s="29"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="31"/>
+      <c r="P90" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S90" s="36"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -3031,14 +3760,23 @@
       <c r="G91" s="22"/>
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
-      <c r="J91" s="25"/>
+      <c r="J91" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K91" s="26"/>
       <c r="L91" s="27"/>
       <c r="M91" s="26"/>
       <c r="N91" s="35"/>
       <c r="O91" s="29"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="31"/>
+      <c r="P91" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S91" s="36"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -3051,14 +3789,23 @@
       <c r="G92" s="22"/>
       <c r="H92" s="24"/>
       <c r="I92" s="24"/>
-      <c r="J92" s="25"/>
+      <c r="J92" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K92" s="26"/>
       <c r="L92" s="27"/>
       <c r="M92" s="26"/>
       <c r="N92" s="35"/>
       <c r="O92" s="29"/>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="31"/>
+      <c r="P92" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S92" s="36"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -3071,14 +3818,23 @@
       <c r="G93" s="22"/>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
-      <c r="J93" s="25"/>
+      <c r="J93" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K93" s="26"/>
       <c r="L93" s="27"/>
       <c r="M93" s="26"/>
       <c r="N93" s="35"/>
       <c r="O93" s="29"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="31"/>
+      <c r="P93" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S93" s="36"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -3091,14 +3847,23 @@
       <c r="G94" s="22"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="J94" s="25"/>
+      <c r="J94" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K94" s="26"/>
       <c r="L94" s="27"/>
       <c r="M94" s="26"/>
       <c r="N94" s="35"/>
       <c r="O94" s="29"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="31"/>
+      <c r="P94" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S94" s="36"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -3111,14 +3876,23 @@
       <c r="G95" s="22"/>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
-      <c r="J95" s="25"/>
+      <c r="J95" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K95" s="26"/>
       <c r="L95" s="27"/>
       <c r="M95" s="26"/>
       <c r="N95" s="35"/>
       <c r="O95" s="29"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="31"/>
+      <c r="P95" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S95" s="36"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -3131,14 +3905,23 @@
       <c r="G96" s="22"/>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
-      <c r="J96" s="25"/>
+      <c r="J96" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K96" s="26"/>
       <c r="L96" s="27"/>
       <c r="M96" s="26"/>
       <c r="N96" s="35"/>
       <c r="O96" s="29"/>
-      <c r="P96" s="30"/>
-      <c r="Q96" s="31"/>
+      <c r="P96" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S96" s="36"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -3151,14 +3934,23 @@
       <c r="G97" s="22"/>
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
-      <c r="J97" s="25"/>
+      <c r="J97" s="25">
+        <f t="shared" ref="J97:J160" si="6">SUM(H97:I97)</f>
+        <v>0</v>
+      </c>
       <c r="K97" s="26"/>
       <c r="L97" s="27"/>
       <c r="M97" s="26"/>
       <c r="N97" s="35"/>
       <c r="O97" s="29"/>
-      <c r="P97" s="30"/>
-      <c r="Q97" s="31"/>
+      <c r="P97" s="30">
+        <f t="shared" ref="P97:P160" si="7">SUM(N97:O97)</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="31">
+        <f t="shared" ref="Q97:Q160" si="8">SUM(P97,J97)</f>
+        <v>0</v>
+      </c>
       <c r="S97" s="36"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -3171,14 +3963,23 @@
       <c r="G98" s="22"/>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
-      <c r="J98" s="25"/>
+      <c r="J98" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K98" s="26"/>
       <c r="L98" s="27"/>
       <c r="M98" s="26"/>
       <c r="N98" s="35"/>
       <c r="O98" s="29"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="31"/>
+      <c r="P98" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S98" s="36"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -3191,14 +3992,23 @@
       <c r="G99" s="22"/>
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
-      <c r="J99" s="25"/>
+      <c r="J99" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K99" s="26"/>
       <c r="L99" s="27"/>
       <c r="M99" s="26"/>
       <c r="N99" s="35"/>
       <c r="O99" s="29"/>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="31"/>
+      <c r="P99" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S99" s="36"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -3211,14 +4021,23 @@
       <c r="G100" s="22"/>
       <c r="H100" s="24"/>
       <c r="I100" s="24"/>
-      <c r="J100" s="25"/>
+      <c r="J100" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K100" s="26"/>
       <c r="L100" s="27"/>
       <c r="M100" s="26"/>
       <c r="N100" s="35"/>
       <c r="O100" s="29"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="31"/>
+      <c r="P100" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S100" s="36"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -3231,14 +4050,23 @@
       <c r="G101" s="22"/>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
-      <c r="J101" s="25"/>
+      <c r="J101" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K101" s="26"/>
       <c r="L101" s="27"/>
       <c r="M101" s="26"/>
       <c r="N101" s="35"/>
       <c r="O101" s="29"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="31"/>
+      <c r="P101" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S101" s="36"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -3251,14 +4079,23 @@
       <c r="G102" s="22"/>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
-      <c r="J102" s="25"/>
+      <c r="J102" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K102" s="26"/>
       <c r="L102" s="27"/>
       <c r="M102" s="26"/>
       <c r="N102" s="35"/>
       <c r="O102" s="29"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="31"/>
+      <c r="P102" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S102" s="36"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -3271,14 +4108,23 @@
       <c r="G103" s="22"/>
       <c r="H103" s="24"/>
       <c r="I103" s="24"/>
-      <c r="J103" s="25"/>
+      <c r="J103" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K103" s="26"/>
       <c r="L103" s="27"/>
       <c r="M103" s="26"/>
       <c r="N103" s="35"/>
       <c r="O103" s="29"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="31"/>
+      <c r="P103" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S103" s="36"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -3291,14 +4137,23 @@
       <c r="G104" s="22"/>
       <c r="H104" s="24"/>
       <c r="I104" s="24"/>
-      <c r="J104" s="25"/>
+      <c r="J104" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K104" s="26"/>
       <c r="L104" s="27"/>
       <c r="M104" s="26"/>
       <c r="N104" s="35"/>
       <c r="O104" s="29"/>
-      <c r="P104" s="30"/>
-      <c r="Q104" s="31"/>
+      <c r="P104" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S104" s="36"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -3311,14 +4166,23 @@
       <c r="G105" s="22"/>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
-      <c r="J105" s="25"/>
+      <c r="J105" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K105" s="26"/>
       <c r="L105" s="27"/>
       <c r="M105" s="26"/>
       <c r="N105" s="35"/>
       <c r="O105" s="29"/>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="31"/>
+      <c r="P105" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S105" s="36"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,14 +4195,23 @@
       <c r="G106" s="22"/>
       <c r="H106" s="24"/>
       <c r="I106" s="24"/>
-      <c r="J106" s="25"/>
+      <c r="J106" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K106" s="26"/>
       <c r="L106" s="27"/>
       <c r="M106" s="26"/>
       <c r="N106" s="35"/>
       <c r="O106" s="29"/>
-      <c r="P106" s="30"/>
-      <c r="Q106" s="31"/>
+      <c r="P106" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S106" s="36"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -3351,14 +4224,23 @@
       <c r="G107" s="22"/>
       <c r="H107" s="24"/>
       <c r="I107" s="24"/>
-      <c r="J107" s="25"/>
+      <c r="J107" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K107" s="26"/>
       <c r="L107" s="27"/>
       <c r="M107" s="26"/>
       <c r="N107" s="35"/>
       <c r="O107" s="29"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="31"/>
+      <c r="P107" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S107" s="36"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -3371,14 +4253,23 @@
       <c r="G108" s="22"/>
       <c r="H108" s="24"/>
       <c r="I108" s="24"/>
-      <c r="J108" s="25"/>
+      <c r="J108" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K108" s="26"/>
       <c r="L108" s="27"/>
       <c r="M108" s="26"/>
       <c r="N108" s="35"/>
       <c r="O108" s="29"/>
-      <c r="P108" s="30"/>
-      <c r="Q108" s="31"/>
+      <c r="P108" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S108" s="36"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -3391,14 +4282,23 @@
       <c r="G109" s="22"/>
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
-      <c r="J109" s="25"/>
+      <c r="J109" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K109" s="26"/>
       <c r="L109" s="27"/>
       <c r="M109" s="26"/>
       <c r="N109" s="35"/>
       <c r="O109" s="29"/>
-      <c r="P109" s="30"/>
-      <c r="Q109" s="31"/>
+      <c r="P109" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S109" s="36"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -3411,14 +4311,23 @@
       <c r="G110" s="22"/>
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
-      <c r="J110" s="25"/>
+      <c r="J110" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K110" s="26"/>
       <c r="L110" s="27"/>
       <c r="M110" s="26"/>
       <c r="N110" s="35"/>
       <c r="O110" s="29"/>
-      <c r="P110" s="30"/>
-      <c r="Q110" s="31"/>
+      <c r="P110" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S110" s="36"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -3431,14 +4340,23 @@
       <c r="G111" s="22"/>
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
-      <c r="J111" s="25"/>
+      <c r="J111" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K111" s="26"/>
       <c r="L111" s="27"/>
       <c r="M111" s="26"/>
       <c r="N111" s="35"/>
       <c r="O111" s="29"/>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="31"/>
+      <c r="P111" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S111" s="36"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -3451,14 +4369,23 @@
       <c r="G112" s="22"/>
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
-      <c r="J112" s="25"/>
+      <c r="J112" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K112" s="26"/>
       <c r="L112" s="27"/>
       <c r="M112" s="26"/>
       <c r="N112" s="35"/>
       <c r="O112" s="29"/>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="31"/>
+      <c r="P112" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S112" s="36"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -3471,14 +4398,23 @@
       <c r="G113" s="22"/>
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
-      <c r="J113" s="25"/>
+      <c r="J113" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K113" s="26"/>
       <c r="L113" s="27"/>
       <c r="M113" s="26"/>
       <c r="N113" s="35"/>
       <c r="O113" s="29"/>
-      <c r="P113" s="30"/>
-      <c r="Q113" s="31"/>
+      <c r="P113" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S113" s="36"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -3491,14 +4427,23 @@
       <c r="G114" s="22"/>
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
-      <c r="J114" s="25"/>
+      <c r="J114" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K114" s="26"/>
       <c r="L114" s="27"/>
       <c r="M114" s="26"/>
       <c r="N114" s="35"/>
       <c r="O114" s="29"/>
-      <c r="P114" s="30"/>
-      <c r="Q114" s="31"/>
+      <c r="P114" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q114" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S114" s="36"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -3511,14 +4456,23 @@
       <c r="G115" s="22"/>
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
-      <c r="J115" s="25"/>
+      <c r="J115" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K115" s="26"/>
       <c r="L115" s="27"/>
       <c r="M115" s="26"/>
       <c r="N115" s="35"/>
       <c r="O115" s="29"/>
-      <c r="P115" s="30"/>
-      <c r="Q115" s="31"/>
+      <c r="P115" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S115" s="36"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -3531,14 +4485,23 @@
       <c r="G116" s="22"/>
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
-      <c r="J116" s="25"/>
+      <c r="J116" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K116" s="26"/>
       <c r="L116" s="27"/>
       <c r="M116" s="26"/>
       <c r="N116" s="35"/>
       <c r="O116" s="29"/>
-      <c r="P116" s="30"/>
-      <c r="Q116" s="31"/>
+      <c r="P116" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S116" s="36"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -3551,14 +4514,23 @@
       <c r="G117" s="22"/>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
-      <c r="J117" s="25"/>
+      <c r="J117" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K117" s="26"/>
       <c r="L117" s="27"/>
       <c r="M117" s="26"/>
       <c r="N117" s="35"/>
       <c r="O117" s="29"/>
-      <c r="P117" s="30"/>
-      <c r="Q117" s="31"/>
+      <c r="P117" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S117" s="36"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -3571,14 +4543,23 @@
       <c r="G118" s="22"/>
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
-      <c r="J118" s="25"/>
+      <c r="J118" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K118" s="26"/>
       <c r="L118" s="27"/>
       <c r="M118" s="26"/>
       <c r="N118" s="35"/>
       <c r="O118" s="29"/>
-      <c r="P118" s="30"/>
-      <c r="Q118" s="31"/>
+      <c r="P118" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q118" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S118" s="36"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -3591,14 +4572,23 @@
       <c r="G119" s="22"/>
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
-      <c r="J119" s="25"/>
+      <c r="J119" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K119" s="26"/>
       <c r="L119" s="27"/>
       <c r="M119" s="26"/>
       <c r="N119" s="35"/>
       <c r="O119" s="29"/>
-      <c r="P119" s="30"/>
-      <c r="Q119" s="31"/>
+      <c r="P119" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S119" s="36"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -3611,14 +4601,23 @@
       <c r="G120" s="22"/>
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
-      <c r="J120" s="25"/>
+      <c r="J120" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K120" s="26"/>
       <c r="L120" s="27"/>
       <c r="M120" s="26"/>
       <c r="N120" s="35"/>
       <c r="O120" s="29"/>
-      <c r="P120" s="30"/>
-      <c r="Q120" s="31"/>
+      <c r="P120" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S120" s="36"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -3631,14 +4630,23 @@
       <c r="G121" s="22"/>
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
-      <c r="J121" s="25"/>
+      <c r="J121" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K121" s="26"/>
       <c r="L121" s="27"/>
       <c r="M121" s="26"/>
       <c r="N121" s="35"/>
       <c r="O121" s="29"/>
-      <c r="P121" s="30"/>
-      <c r="Q121" s="31"/>
+      <c r="P121" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S121" s="36"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -3651,14 +4659,23 @@
       <c r="G122" s="22"/>
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
-      <c r="J122" s="25"/>
+      <c r="J122" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K122" s="26"/>
       <c r="L122" s="27"/>
       <c r="M122" s="26"/>
       <c r="N122" s="35"/>
       <c r="O122" s="29"/>
-      <c r="P122" s="30"/>
-      <c r="Q122" s="31"/>
+      <c r="P122" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q122" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S122" s="36"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -3671,14 +4688,23 @@
       <c r="G123" s="22"/>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
-      <c r="J123" s="25"/>
+      <c r="J123" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K123" s="26"/>
       <c r="L123" s="27"/>
       <c r="M123" s="26"/>
       <c r="N123" s="35"/>
       <c r="O123" s="29"/>
-      <c r="P123" s="30"/>
-      <c r="Q123" s="31"/>
+      <c r="P123" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S123" s="36"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -3691,14 +4717,23 @@
       <c r="G124" s="22"/>
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
-      <c r="J124" s="25"/>
+      <c r="J124" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K124" s="26"/>
       <c r="L124" s="27"/>
       <c r="M124" s="26"/>
       <c r="N124" s="35"/>
       <c r="O124" s="29"/>
-      <c r="P124" s="30"/>
-      <c r="Q124" s="31"/>
+      <c r="P124" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S124" s="36"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -3711,14 +4746,23 @@
       <c r="G125" s="22"/>
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
-      <c r="J125" s="25"/>
+      <c r="J125" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K125" s="26"/>
       <c r="L125" s="27"/>
       <c r="M125" s="26"/>
       <c r="N125" s="35"/>
       <c r="O125" s="29"/>
-      <c r="P125" s="30"/>
-      <c r="Q125" s="31"/>
+      <c r="P125" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S125" s="36"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -3731,14 +4775,23 @@
       <c r="G126" s="22"/>
       <c r="H126" s="24"/>
       <c r="I126" s="24"/>
-      <c r="J126" s="25"/>
+      <c r="J126" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K126" s="26"/>
       <c r="L126" s="27"/>
       <c r="M126" s="26"/>
       <c r="N126" s="35"/>
       <c r="O126" s="29"/>
-      <c r="P126" s="30"/>
-      <c r="Q126" s="31"/>
+      <c r="P126" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S126" s="36"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -3751,14 +4804,23 @@
       <c r="G127" s="22"/>
       <c r="H127" s="24"/>
       <c r="I127" s="24"/>
-      <c r="J127" s="25"/>
+      <c r="J127" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K127" s="26"/>
       <c r="L127" s="27"/>
       <c r="M127" s="26"/>
       <c r="N127" s="35"/>
       <c r="O127" s="29"/>
-      <c r="P127" s="30"/>
-      <c r="Q127" s="31"/>
+      <c r="P127" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S127" s="36"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
@@ -3771,14 +4833,23 @@
       <c r="G128" s="22"/>
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
-      <c r="J128" s="25"/>
+      <c r="J128" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K128" s="26"/>
       <c r="L128" s="27"/>
       <c r="M128" s="26"/>
       <c r="N128" s="35"/>
       <c r="O128" s="29"/>
-      <c r="P128" s="30"/>
-      <c r="Q128" s="31"/>
+      <c r="P128" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S128" s="36"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -3791,14 +4862,23 @@
       <c r="G129" s="22"/>
       <c r="H129" s="24"/>
       <c r="I129" s="24"/>
-      <c r="J129" s="25"/>
+      <c r="J129" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K129" s="26"/>
       <c r="L129" s="27"/>
       <c r="M129" s="26"/>
       <c r="N129" s="35"/>
       <c r="O129" s="29"/>
-      <c r="P129" s="30"/>
-      <c r="Q129" s="31"/>
+      <c r="P129" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S129" s="36"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -3811,14 +4891,23 @@
       <c r="G130" s="22"/>
       <c r="H130" s="24"/>
       <c r="I130" s="24"/>
-      <c r="J130" s="25"/>
+      <c r="J130" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K130" s="26"/>
       <c r="L130" s="27"/>
       <c r="M130" s="26"/>
       <c r="N130" s="35"/>
       <c r="O130" s="29"/>
-      <c r="P130" s="30"/>
-      <c r="Q130" s="31"/>
+      <c r="P130" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S130" s="36"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -3831,14 +4920,23 @@
       <c r="G131" s="22"/>
       <c r="H131" s="24"/>
       <c r="I131" s="24"/>
-      <c r="J131" s="25"/>
+      <c r="J131" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K131" s="26"/>
       <c r="L131" s="27"/>
       <c r="M131" s="26"/>
       <c r="N131" s="35"/>
       <c r="O131" s="29"/>
-      <c r="P131" s="30"/>
-      <c r="Q131" s="31"/>
+      <c r="P131" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S131" s="36"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -3851,14 +4949,23 @@
       <c r="G132" s="22"/>
       <c r="H132" s="24"/>
       <c r="I132" s="24"/>
-      <c r="J132" s="25"/>
+      <c r="J132" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K132" s="26"/>
       <c r="L132" s="27"/>
       <c r="M132" s="26"/>
       <c r="N132" s="35"/>
       <c r="O132" s="29"/>
-      <c r="P132" s="30"/>
-      <c r="Q132" s="31"/>
+      <c r="P132" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S132" s="36"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -3871,14 +4978,23 @@
       <c r="G133" s="22"/>
       <c r="H133" s="24"/>
       <c r="I133" s="24"/>
-      <c r="J133" s="25"/>
+      <c r="J133" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K133" s="26"/>
       <c r="L133" s="27"/>
       <c r="M133" s="26"/>
       <c r="N133" s="35"/>
       <c r="O133" s="29"/>
-      <c r="P133" s="30"/>
-      <c r="Q133" s="31"/>
+      <c r="P133" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S133" s="36"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -3891,14 +5007,23 @@
       <c r="G134" s="22"/>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
-      <c r="J134" s="25"/>
+      <c r="J134" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K134" s="26"/>
       <c r="L134" s="27"/>
       <c r="M134" s="26"/>
       <c r="N134" s="35"/>
       <c r="O134" s="29"/>
-      <c r="P134" s="30"/>
-      <c r="Q134" s="31"/>
+      <c r="P134" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S134" s="36"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -3911,14 +5036,23 @@
       <c r="G135" s="22"/>
       <c r="H135" s="24"/>
       <c r="I135" s="24"/>
-      <c r="J135" s="25"/>
+      <c r="J135" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K135" s="26"/>
       <c r="L135" s="27"/>
       <c r="M135" s="26"/>
       <c r="N135" s="35"/>
       <c r="O135" s="29"/>
-      <c r="P135" s="30"/>
-      <c r="Q135" s="31"/>
+      <c r="P135" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S135" s="36"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -3931,14 +5065,23 @@
       <c r="G136" s="22"/>
       <c r="H136" s="24"/>
       <c r="I136" s="24"/>
-      <c r="J136" s="25"/>
+      <c r="J136" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K136" s="26"/>
       <c r="L136" s="27"/>
       <c r="M136" s="26"/>
       <c r="N136" s="35"/>
       <c r="O136" s="29"/>
-      <c r="P136" s="30"/>
-      <c r="Q136" s="31"/>
+      <c r="P136" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S136" s="36"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -3951,14 +5094,23 @@
       <c r="G137" s="22"/>
       <c r="H137" s="24"/>
       <c r="I137" s="24"/>
-      <c r="J137" s="25"/>
+      <c r="J137" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K137" s="26"/>
       <c r="L137" s="27"/>
       <c r="M137" s="26"/>
       <c r="N137" s="35"/>
       <c r="O137" s="29"/>
-      <c r="P137" s="30"/>
-      <c r="Q137" s="31"/>
+      <c r="P137" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S137" s="36"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -3971,14 +5123,23 @@
       <c r="G138" s="22"/>
       <c r="H138" s="24"/>
       <c r="I138" s="24"/>
-      <c r="J138" s="25"/>
+      <c r="J138" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K138" s="26"/>
       <c r="L138" s="27"/>
       <c r="M138" s="26"/>
       <c r="N138" s="35"/>
       <c r="O138" s="29"/>
-      <c r="P138" s="30"/>
-      <c r="Q138" s="31"/>
+      <c r="P138" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S138" s="36"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -3991,14 +5152,23 @@
       <c r="G139" s="22"/>
       <c r="H139" s="24"/>
       <c r="I139" s="24"/>
-      <c r="J139" s="25"/>
+      <c r="J139" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K139" s="26"/>
       <c r="L139" s="27"/>
       <c r="M139" s="26"/>
       <c r="N139" s="35"/>
       <c r="O139" s="29"/>
-      <c r="P139" s="30"/>
-      <c r="Q139" s="31"/>
+      <c r="P139" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S139" s="36"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -4011,14 +5181,23 @@
       <c r="G140" s="22"/>
       <c r="H140" s="24"/>
       <c r="I140" s="24"/>
-      <c r="J140" s="25"/>
+      <c r="J140" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K140" s="26"/>
       <c r="L140" s="27"/>
       <c r="M140" s="26"/>
       <c r="N140" s="35"/>
       <c r="O140" s="29"/>
-      <c r="P140" s="30"/>
-      <c r="Q140" s="31"/>
+      <c r="P140" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S140" s="36"/>
     </row>
     <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4031,14 +5210,23 @@
       <c r="G141" s="22"/>
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
-      <c r="J141" s="25"/>
+      <c r="J141" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K141" s="26"/>
       <c r="L141" s="27"/>
       <c r="M141" s="26"/>
       <c r="N141" s="35"/>
       <c r="O141" s="29"/>
-      <c r="P141" s="30"/>
-      <c r="Q141" s="31"/>
+      <c r="P141" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S141" s="36"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -4051,14 +5239,23 @@
       <c r="G142" s="22"/>
       <c r="H142" s="24"/>
       <c r="I142" s="24"/>
-      <c r="J142" s="25"/>
+      <c r="J142" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K142" s="26"/>
       <c r="L142" s="27"/>
       <c r="M142" s="26"/>
       <c r="N142" s="35"/>
       <c r="O142" s="29"/>
-      <c r="P142" s="30"/>
-      <c r="Q142" s="31"/>
+      <c r="P142" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S142" s="36"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -4071,14 +5268,23 @@
       <c r="G143" s="22"/>
       <c r="H143" s="24"/>
       <c r="I143" s="24"/>
-      <c r="J143" s="25"/>
+      <c r="J143" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K143" s="26"/>
       <c r="L143" s="27"/>
       <c r="M143" s="26"/>
       <c r="N143" s="35"/>
       <c r="O143" s="29"/>
-      <c r="P143" s="30"/>
-      <c r="Q143" s="31"/>
+      <c r="P143" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q143" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S143" s="36"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -4091,14 +5297,23 @@
       <c r="G144" s="22"/>
       <c r="H144" s="24"/>
       <c r="I144" s="24"/>
-      <c r="J144" s="25"/>
+      <c r="J144" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K144" s="26"/>
       <c r="L144" s="27"/>
       <c r="M144" s="26"/>
       <c r="N144" s="35"/>
       <c r="O144" s="29"/>
-      <c r="P144" s="30"/>
-      <c r="Q144" s="31"/>
+      <c r="P144" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S144" s="36"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -4111,14 +5326,23 @@
       <c r="G145" s="22"/>
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
-      <c r="J145" s="25"/>
+      <c r="J145" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K145" s="26"/>
       <c r="L145" s="27"/>
       <c r="M145" s="26"/>
       <c r="N145" s="35"/>
       <c r="O145" s="29"/>
-      <c r="P145" s="30"/>
-      <c r="Q145" s="31"/>
+      <c r="P145" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S145" s="36"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -4131,14 +5355,23 @@
       <c r="G146" s="22"/>
       <c r="H146" s="24"/>
       <c r="I146" s="24"/>
-      <c r="J146" s="25"/>
+      <c r="J146" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K146" s="26"/>
       <c r="L146" s="27"/>
       <c r="M146" s="26"/>
       <c r="N146" s="35"/>
       <c r="O146" s="29"/>
-      <c r="P146" s="30"/>
-      <c r="Q146" s="31"/>
+      <c r="P146" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q146" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S146" s="36"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -4151,14 +5384,23 @@
       <c r="G147" s="22"/>
       <c r="H147" s="24"/>
       <c r="I147" s="24"/>
-      <c r="J147" s="25"/>
+      <c r="J147" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K147" s="26"/>
       <c r="L147" s="27"/>
       <c r="M147" s="26"/>
       <c r="N147" s="35"/>
       <c r="O147" s="29"/>
-      <c r="P147" s="30"/>
-      <c r="Q147" s="31"/>
+      <c r="P147" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S147" s="36"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -4171,14 +5413,23 @@
       <c r="G148" s="22"/>
       <c r="H148" s="24"/>
       <c r="I148" s="24"/>
-      <c r="J148" s="25"/>
+      <c r="J148" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K148" s="26"/>
       <c r="L148" s="27"/>
       <c r="M148" s="26"/>
       <c r="N148" s="35"/>
       <c r="O148" s="29"/>
-      <c r="P148" s="30"/>
-      <c r="Q148" s="31"/>
+      <c r="P148" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S148" s="36"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -4191,14 +5442,23 @@
       <c r="G149" s="22"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
-      <c r="J149" s="25"/>
+      <c r="J149" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K149" s="26"/>
       <c r="L149" s="27"/>
       <c r="M149" s="26"/>
       <c r="N149" s="35"/>
       <c r="O149" s="29"/>
-      <c r="P149" s="30"/>
-      <c r="Q149" s="31"/>
+      <c r="P149" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S149" s="36"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -4211,14 +5471,23 @@
       <c r="G150" s="22"/>
       <c r="H150" s="24"/>
       <c r="I150" s="24"/>
-      <c r="J150" s="25"/>
+      <c r="J150" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K150" s="26"/>
       <c r="L150" s="27"/>
       <c r="M150" s="26"/>
       <c r="N150" s="35"/>
       <c r="O150" s="29"/>
-      <c r="P150" s="30"/>
-      <c r="Q150" s="31"/>
+      <c r="P150" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S150" s="36"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -4231,14 +5500,23 @@
       <c r="G151" s="22"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
-      <c r="J151" s="25"/>
+      <c r="J151" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K151" s="26"/>
       <c r="L151" s="27"/>
       <c r="M151" s="26"/>
       <c r="N151" s="35"/>
       <c r="O151" s="29"/>
-      <c r="P151" s="30"/>
-      <c r="Q151" s="31"/>
+      <c r="P151" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S151" s="36"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
@@ -4251,14 +5529,23 @@
       <c r="G152" s="22"/>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
-      <c r="J152" s="25"/>
+      <c r="J152" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K152" s="26"/>
       <c r="L152" s="27"/>
       <c r="M152" s="26"/>
       <c r="N152" s="35"/>
       <c r="O152" s="29"/>
-      <c r="P152" s="30"/>
-      <c r="Q152" s="31"/>
+      <c r="P152" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q152" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S152" s="36"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
@@ -4271,14 +5558,23 @@
       <c r="G153" s="22"/>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
-      <c r="J153" s="25"/>
+      <c r="J153" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K153" s="26"/>
       <c r="L153" s="27"/>
       <c r="M153" s="26"/>
       <c r="N153" s="35"/>
       <c r="O153" s="29"/>
-      <c r="P153" s="30"/>
-      <c r="Q153" s="31"/>
+      <c r="P153" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q153" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S153" s="36"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -4291,14 +5587,23 @@
       <c r="G154" s="22"/>
       <c r="H154" s="24"/>
       <c r="I154" s="24"/>
-      <c r="J154" s="25"/>
+      <c r="J154" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K154" s="26"/>
       <c r="L154" s="27"/>
       <c r="M154" s="26"/>
       <c r="N154" s="35"/>
       <c r="O154" s="29"/>
-      <c r="P154" s="30"/>
-      <c r="Q154" s="31"/>
+      <c r="P154" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q154" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S154" s="36"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
@@ -4311,14 +5616,23 @@
       <c r="G155" s="22"/>
       <c r="H155" s="24"/>
       <c r="I155" s="24"/>
-      <c r="J155" s="25"/>
+      <c r="J155" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K155" s="26"/>
       <c r="L155" s="27"/>
       <c r="M155" s="26"/>
       <c r="N155" s="35"/>
       <c r="O155" s="29"/>
-      <c r="P155" s="30"/>
-      <c r="Q155" s="31"/>
+      <c r="P155" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q155" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S155" s="36"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -4331,14 +5645,23 @@
       <c r="G156" s="22"/>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
-      <c r="J156" s="25"/>
+      <c r="J156" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K156" s="26"/>
       <c r="L156" s="27"/>
       <c r="M156" s="26"/>
       <c r="N156" s="35"/>
       <c r="O156" s="29"/>
-      <c r="P156" s="30"/>
-      <c r="Q156" s="31"/>
+      <c r="P156" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q156" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S156" s="36"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -4351,14 +5674,23 @@
       <c r="G157" s="22"/>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
-      <c r="J157" s="25"/>
+      <c r="J157" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K157" s="26"/>
       <c r="L157" s="27"/>
       <c r="M157" s="26"/>
       <c r="N157" s="35"/>
       <c r="O157" s="29"/>
-      <c r="P157" s="30"/>
-      <c r="Q157" s="31"/>
+      <c r="P157" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q157" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S157" s="36"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -4371,14 +5703,23 @@
       <c r="G158" s="22"/>
       <c r="H158" s="24"/>
       <c r="I158" s="24"/>
-      <c r="J158" s="25"/>
+      <c r="J158" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K158" s="26"/>
       <c r="L158" s="27"/>
       <c r="M158" s="26"/>
       <c r="N158" s="35"/>
       <c r="O158" s="29"/>
-      <c r="P158" s="30"/>
-      <c r="Q158" s="31"/>
+      <c r="P158" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q158" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S158" s="36"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -4391,14 +5732,23 @@
       <c r="G159" s="22"/>
       <c r="H159" s="24"/>
       <c r="I159" s="24"/>
-      <c r="J159" s="25"/>
+      <c r="J159" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K159" s="26"/>
       <c r="L159" s="27"/>
       <c r="M159" s="26"/>
       <c r="N159" s="35"/>
       <c r="O159" s="29"/>
-      <c r="P159" s="30"/>
-      <c r="Q159" s="31"/>
+      <c r="P159" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q159" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S159" s="36"/>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -4411,14 +5761,23 @@
       <c r="G160" s="22"/>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
-      <c r="J160" s="25"/>
+      <c r="J160" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K160" s="26"/>
       <c r="L160" s="27"/>
       <c r="M160" s="26"/>
       <c r="N160" s="35"/>
       <c r="O160" s="29"/>
-      <c r="P160" s="30"/>
-      <c r="Q160" s="31"/>
+      <c r="P160" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q160" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="S160" s="36"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
@@ -4431,14 +5790,23 @@
       <c r="G161" s="22"/>
       <c r="H161" s="24"/>
       <c r="I161" s="24"/>
-      <c r="J161" s="25"/>
+      <c r="J161" s="25">
+        <f t="shared" ref="J161:J224" si="9">SUM(H161:I161)</f>
+        <v>0</v>
+      </c>
       <c r="K161" s="26"/>
       <c r="L161" s="27"/>
       <c r="M161" s="26"/>
       <c r="N161" s="35"/>
       <c r="O161" s="29"/>
-      <c r="P161" s="30"/>
-      <c r="Q161" s="31"/>
+      <c r="P161" s="30">
+        <f t="shared" ref="P161:P224" si="10">SUM(N161:O161)</f>
+        <v>0</v>
+      </c>
+      <c r="Q161" s="31">
+        <f t="shared" ref="Q161:Q224" si="11">SUM(P161,J161)</f>
+        <v>0</v>
+      </c>
       <c r="S161" s="36"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -4451,14 +5819,23 @@
       <c r="G162" s="22"/>
       <c r="H162" s="24"/>
       <c r="I162" s="24"/>
-      <c r="J162" s="25"/>
+      <c r="J162" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K162" s="26"/>
       <c r="L162" s="27"/>
       <c r="M162" s="26"/>
       <c r="N162" s="35"/>
       <c r="O162" s="29"/>
-      <c r="P162" s="30"/>
-      <c r="Q162" s="31"/>
+      <c r="P162" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q162" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S162" s="36"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -4471,14 +5848,23 @@
       <c r="G163" s="22"/>
       <c r="H163" s="24"/>
       <c r="I163" s="24"/>
-      <c r="J163" s="25"/>
+      <c r="J163" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K163" s="26"/>
       <c r="L163" s="27"/>
       <c r="M163" s="26"/>
       <c r="N163" s="35"/>
       <c r="O163" s="29"/>
-      <c r="P163" s="30"/>
-      <c r="Q163" s="31"/>
+      <c r="P163" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q163" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S163" s="36"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -4491,14 +5877,23 @@
       <c r="G164" s="22"/>
       <c r="H164" s="24"/>
       <c r="I164" s="24"/>
-      <c r="J164" s="25"/>
+      <c r="J164" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K164" s="26"/>
       <c r="L164" s="27"/>
       <c r="M164" s="26"/>
       <c r="N164" s="35"/>
       <c r="O164" s="29"/>
-      <c r="P164" s="30"/>
-      <c r="Q164" s="31"/>
+      <c r="P164" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q164" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S164" s="36"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -4511,14 +5906,23 @@
       <c r="G165" s="22"/>
       <c r="H165" s="24"/>
       <c r="I165" s="24"/>
-      <c r="J165" s="25"/>
+      <c r="J165" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K165" s="26"/>
       <c r="L165" s="27"/>
       <c r="M165" s="26"/>
       <c r="N165" s="35"/>
       <c r="O165" s="29"/>
-      <c r="P165" s="30"/>
-      <c r="Q165" s="31"/>
+      <c r="P165" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q165" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S165" s="36"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -4531,14 +5935,23 @@
       <c r="G166" s="22"/>
       <c r="H166" s="24"/>
       <c r="I166" s="24"/>
-      <c r="J166" s="25"/>
+      <c r="J166" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K166" s="26"/>
       <c r="L166" s="27"/>
       <c r="M166" s="26"/>
       <c r="N166" s="35"/>
       <c r="O166" s="29"/>
-      <c r="P166" s="30"/>
-      <c r="Q166" s="31"/>
+      <c r="P166" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q166" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S166" s="36"/>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -4551,14 +5964,23 @@
       <c r="G167" s="22"/>
       <c r="H167" s="24"/>
       <c r="I167" s="24"/>
-      <c r="J167" s="25"/>
+      <c r="J167" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K167" s="26"/>
       <c r="L167" s="27"/>
       <c r="M167" s="26"/>
       <c r="N167" s="35"/>
       <c r="O167" s="29"/>
-      <c r="P167" s="30"/>
-      <c r="Q167" s="31"/>
+      <c r="P167" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q167" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S167" s="36"/>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -4571,14 +5993,23 @@
       <c r="G168" s="22"/>
       <c r="H168" s="24"/>
       <c r="I168" s="24"/>
-      <c r="J168" s="25"/>
+      <c r="J168" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K168" s="26"/>
       <c r="L168" s="27"/>
       <c r="M168" s="26"/>
       <c r="N168" s="35"/>
       <c r="O168" s="29"/>
-      <c r="P168" s="30"/>
-      <c r="Q168" s="31"/>
+      <c r="P168" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S168" s="36"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
@@ -4591,14 +6022,23 @@
       <c r="G169" s="22"/>
       <c r="H169" s="24"/>
       <c r="I169" s="24"/>
-      <c r="J169" s="25"/>
+      <c r="J169" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K169" s="26"/>
       <c r="L169" s="27"/>
       <c r="M169" s="26"/>
       <c r="N169" s="35"/>
       <c r="O169" s="29"/>
-      <c r="P169" s="30"/>
-      <c r="Q169" s="31"/>
+      <c r="P169" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S169" s="36"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
@@ -4611,14 +6051,23 @@
       <c r="G170" s="22"/>
       <c r="H170" s="24"/>
       <c r="I170" s="24"/>
-      <c r="J170" s="25"/>
+      <c r="J170" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K170" s="26"/>
       <c r="L170" s="27"/>
       <c r="M170" s="26"/>
       <c r="N170" s="35"/>
       <c r="O170" s="29"/>
-      <c r="P170" s="30"/>
-      <c r="Q170" s="31"/>
+      <c r="P170" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q170" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S170" s="36"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
@@ -4631,14 +6080,23 @@
       <c r="G171" s="22"/>
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
-      <c r="J171" s="25"/>
+      <c r="J171" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K171" s="26"/>
       <c r="L171" s="27"/>
       <c r="M171" s="26"/>
       <c r="N171" s="35"/>
       <c r="O171" s="29"/>
-      <c r="P171" s="30"/>
-      <c r="Q171" s="31"/>
+      <c r="P171" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q171" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S171" s="36"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
@@ -4651,14 +6109,23 @@
       <c r="G172" s="22"/>
       <c r="H172" s="24"/>
       <c r="I172" s="24"/>
-      <c r="J172" s="25"/>
+      <c r="J172" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K172" s="26"/>
       <c r="L172" s="27"/>
       <c r="M172" s="26"/>
       <c r="N172" s="35"/>
       <c r="O172" s="29"/>
-      <c r="P172" s="30"/>
-      <c r="Q172" s="31"/>
+      <c r="P172" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q172" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S172" s="36"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
@@ -4671,14 +6138,23 @@
       <c r="G173" s="22"/>
       <c r="H173" s="24"/>
       <c r="I173" s="24"/>
-      <c r="J173" s="25"/>
+      <c r="J173" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K173" s="26"/>
       <c r="L173" s="27"/>
       <c r="M173" s="26"/>
       <c r="N173" s="35"/>
       <c r="O173" s="29"/>
-      <c r="P173" s="30"/>
-      <c r="Q173" s="31"/>
+      <c r="P173" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q173" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S173" s="36"/>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
@@ -4691,14 +6167,23 @@
       <c r="G174" s="22"/>
       <c r="H174" s="24"/>
       <c r="I174" s="24"/>
-      <c r="J174" s="25"/>
+      <c r="J174" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K174" s="26"/>
       <c r="L174" s="27"/>
       <c r="M174" s="26"/>
       <c r="N174" s="35"/>
       <c r="O174" s="29"/>
-      <c r="P174" s="30"/>
-      <c r="Q174" s="31"/>
+      <c r="P174" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q174" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S174" s="36"/>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
@@ -4711,14 +6196,23 @@
       <c r="G175" s="22"/>
       <c r="H175" s="24"/>
       <c r="I175" s="24"/>
-      <c r="J175" s="25"/>
+      <c r="J175" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K175" s="26"/>
       <c r="L175" s="27"/>
       <c r="M175" s="26"/>
       <c r="N175" s="35"/>
       <c r="O175" s="29"/>
-      <c r="P175" s="30"/>
-      <c r="Q175" s="31"/>
+      <c r="P175" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q175" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S175" s="36"/>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
@@ -4731,14 +6225,23 @@
       <c r="G176" s="22"/>
       <c r="H176" s="24"/>
       <c r="I176" s="24"/>
-      <c r="J176" s="25"/>
+      <c r="J176" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K176" s="26"/>
       <c r="L176" s="27"/>
       <c r="M176" s="26"/>
       <c r="N176" s="35"/>
       <c r="O176" s="29"/>
-      <c r="P176" s="30"/>
-      <c r="Q176" s="31"/>
+      <c r="P176" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q176" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S176" s="36"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
@@ -4751,14 +6254,23 @@
       <c r="G177" s="22"/>
       <c r="H177" s="24"/>
       <c r="I177" s="24"/>
-      <c r="J177" s="25"/>
+      <c r="J177" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K177" s="26"/>
       <c r="L177" s="27"/>
       <c r="M177" s="26"/>
       <c r="N177" s="35"/>
       <c r="O177" s="29"/>
-      <c r="P177" s="30"/>
-      <c r="Q177" s="31"/>
+      <c r="P177" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q177" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S177" s="36"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
@@ -4771,14 +6283,23 @@
       <c r="G178" s="22"/>
       <c r="H178" s="24"/>
       <c r="I178" s="24"/>
-      <c r="J178" s="25"/>
+      <c r="J178" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K178" s="26"/>
       <c r="L178" s="27"/>
       <c r="M178" s="26"/>
       <c r="N178" s="35"/>
       <c r="O178" s="29"/>
-      <c r="P178" s="30"/>
-      <c r="Q178" s="31"/>
+      <c r="P178" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q178" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S178" s="36"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
@@ -4791,14 +6312,23 @@
       <c r="G179" s="22"/>
       <c r="H179" s="24"/>
       <c r="I179" s="24"/>
-      <c r="J179" s="25"/>
+      <c r="J179" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K179" s="26"/>
       <c r="L179" s="27"/>
       <c r="M179" s="26"/>
       <c r="N179" s="35"/>
       <c r="O179" s="29"/>
-      <c r="P179" s="30"/>
-      <c r="Q179" s="31"/>
+      <c r="P179" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q179" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S179" s="36"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
@@ -4811,14 +6341,23 @@
       <c r="G180" s="22"/>
       <c r="H180" s="24"/>
       <c r="I180" s="24"/>
-      <c r="J180" s="25"/>
+      <c r="J180" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K180" s="26"/>
       <c r="L180" s="27"/>
       <c r="M180" s="26"/>
       <c r="N180" s="35"/>
       <c r="O180" s="29"/>
-      <c r="P180" s="30"/>
-      <c r="Q180" s="31"/>
+      <c r="P180" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q180" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S180" s="36"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
@@ -4831,14 +6370,23 @@
       <c r="G181" s="22"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
-      <c r="J181" s="25"/>
+      <c r="J181" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K181" s="26"/>
       <c r="L181" s="27"/>
       <c r="M181" s="26"/>
       <c r="N181" s="35"/>
       <c r="O181" s="29"/>
-      <c r="P181" s="30"/>
-      <c r="Q181" s="31"/>
+      <c r="P181" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q181" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S181" s="36"/>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
@@ -4851,14 +6399,23 @@
       <c r="G182" s="22"/>
       <c r="H182" s="24"/>
       <c r="I182" s="24"/>
-      <c r="J182" s="25"/>
+      <c r="J182" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K182" s="26"/>
       <c r="L182" s="27"/>
       <c r="M182" s="26"/>
       <c r="N182" s="35"/>
       <c r="O182" s="29"/>
-      <c r="P182" s="30"/>
-      <c r="Q182" s="31"/>
+      <c r="P182" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S182" s="36"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
@@ -4871,14 +6428,23 @@
       <c r="G183" s="22"/>
       <c r="H183" s="24"/>
       <c r="I183" s="24"/>
-      <c r="J183" s="25"/>
+      <c r="J183" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K183" s="26"/>
       <c r="L183" s="27"/>
       <c r="M183" s="26"/>
       <c r="N183" s="35"/>
       <c r="O183" s="29"/>
-      <c r="P183" s="30"/>
-      <c r="Q183" s="31"/>
+      <c r="P183" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S183" s="36"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
@@ -4891,14 +6457,23 @@
       <c r="G184" s="22"/>
       <c r="H184" s="24"/>
       <c r="I184" s="24"/>
-      <c r="J184" s="25"/>
+      <c r="J184" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K184" s="26"/>
       <c r="L184" s="27"/>
       <c r="M184" s="26"/>
       <c r="N184" s="35"/>
       <c r="O184" s="29"/>
-      <c r="P184" s="30"/>
-      <c r="Q184" s="31"/>
+      <c r="P184" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S184" s="36"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
@@ -4911,14 +6486,23 @@
       <c r="G185" s="22"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
-      <c r="J185" s="25"/>
+      <c r="J185" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K185" s="26"/>
       <c r="L185" s="27"/>
       <c r="M185" s="26"/>
       <c r="N185" s="35"/>
       <c r="O185" s="29"/>
-      <c r="P185" s="30"/>
-      <c r="Q185" s="31"/>
+      <c r="P185" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q185" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S185" s="36"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
@@ -4931,14 +6515,23 @@
       <c r="G186" s="22"/>
       <c r="H186" s="24"/>
       <c r="I186" s="24"/>
-      <c r="J186" s="25"/>
+      <c r="J186" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K186" s="26"/>
       <c r="L186" s="27"/>
       <c r="M186" s="26"/>
       <c r="N186" s="35"/>
       <c r="O186" s="29"/>
-      <c r="P186" s="30"/>
-      <c r="Q186" s="31"/>
+      <c r="P186" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q186" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S186" s="36"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
@@ -4951,14 +6544,23 @@
       <c r="G187" s="22"/>
       <c r="H187" s="24"/>
       <c r="I187" s="24"/>
-      <c r="J187" s="25"/>
+      <c r="J187" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K187" s="26"/>
       <c r="L187" s="27"/>
       <c r="M187" s="26"/>
       <c r="N187" s="35"/>
       <c r="O187" s="29"/>
-      <c r="P187" s="30"/>
-      <c r="Q187" s="31"/>
+      <c r="P187" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q187" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S187" s="36"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
@@ -4971,14 +6573,23 @@
       <c r="G188" s="22"/>
       <c r="H188" s="24"/>
       <c r="I188" s="24"/>
-      <c r="J188" s="25"/>
+      <c r="J188" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K188" s="26"/>
       <c r="L188" s="27"/>
       <c r="M188" s="26"/>
       <c r="N188" s="35"/>
       <c r="O188" s="29"/>
-      <c r="P188" s="30"/>
-      <c r="Q188" s="31"/>
+      <c r="P188" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q188" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S188" s="36"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
@@ -4991,14 +6602,23 @@
       <c r="G189" s="22"/>
       <c r="H189" s="24"/>
       <c r="I189" s="24"/>
-      <c r="J189" s="25"/>
+      <c r="J189" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K189" s="26"/>
       <c r="L189" s="27"/>
       <c r="M189" s="26"/>
       <c r="N189" s="35"/>
       <c r="O189" s="29"/>
-      <c r="P189" s="30"/>
-      <c r="Q189" s="31"/>
+      <c r="P189" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q189" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S189" s="36"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
@@ -5011,14 +6631,23 @@
       <c r="G190" s="22"/>
       <c r="H190" s="24"/>
       <c r="I190" s="24"/>
-      <c r="J190" s="25"/>
+      <c r="J190" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K190" s="26"/>
       <c r="L190" s="27"/>
       <c r="M190" s="26"/>
       <c r="N190" s="35"/>
       <c r="O190" s="29"/>
-      <c r="P190" s="30"/>
-      <c r="Q190" s="31"/>
+      <c r="P190" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q190" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S190" s="36"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
@@ -5031,14 +6660,23 @@
       <c r="G191" s="22"/>
       <c r="H191" s="24"/>
       <c r="I191" s="24"/>
-      <c r="J191" s="25"/>
+      <c r="J191" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K191" s="26"/>
       <c r="L191" s="27"/>
       <c r="M191" s="26"/>
       <c r="N191" s="35"/>
       <c r="O191" s="29"/>
-      <c r="P191" s="30"/>
-      <c r="Q191" s="31"/>
+      <c r="P191" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q191" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S191" s="36"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
@@ -5051,14 +6689,23 @@
       <c r="G192" s="22"/>
       <c r="H192" s="24"/>
       <c r="I192" s="24"/>
-      <c r="J192" s="25"/>
+      <c r="J192" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K192" s="26"/>
       <c r="L192" s="27"/>
       <c r="M192" s="26"/>
       <c r="N192" s="35"/>
       <c r="O192" s="29"/>
-      <c r="P192" s="30"/>
-      <c r="Q192" s="31"/>
+      <c r="P192" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q192" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S192" s="36"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
@@ -5071,14 +6718,23 @@
       <c r="G193" s="22"/>
       <c r="H193" s="24"/>
       <c r="I193" s="24"/>
-      <c r="J193" s="25"/>
+      <c r="J193" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K193" s="26"/>
       <c r="L193" s="27"/>
       <c r="M193" s="26"/>
       <c r="N193" s="35"/>
       <c r="O193" s="29"/>
-      <c r="P193" s="30"/>
-      <c r="Q193" s="31"/>
+      <c r="P193" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q193" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S193" s="36"/>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
@@ -5091,14 +6747,23 @@
       <c r="G194" s="22"/>
       <c r="H194" s="24"/>
       <c r="I194" s="24"/>
-      <c r="J194" s="25"/>
+      <c r="J194" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K194" s="26"/>
       <c r="L194" s="27"/>
       <c r="M194" s="26"/>
       <c r="N194" s="35"/>
       <c r="O194" s="29"/>
-      <c r="P194" s="30"/>
-      <c r="Q194" s="31"/>
+      <c r="P194" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S194" s="36"/>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
@@ -5111,14 +6776,23 @@
       <c r="G195" s="22"/>
       <c r="H195" s="24"/>
       <c r="I195" s="24"/>
-      <c r="J195" s="25"/>
+      <c r="J195" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K195" s="26"/>
       <c r="L195" s="27"/>
       <c r="M195" s="26"/>
       <c r="N195" s="35"/>
       <c r="O195" s="29"/>
-      <c r="P195" s="30"/>
-      <c r="Q195" s="31"/>
+      <c r="P195" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S195" s="36"/>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
@@ -5131,14 +6805,23 @@
       <c r="G196" s="22"/>
       <c r="H196" s="24"/>
       <c r="I196" s="24"/>
-      <c r="J196" s="25"/>
+      <c r="J196" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K196" s="26"/>
       <c r="L196" s="27"/>
       <c r="M196" s="26"/>
       <c r="N196" s="35"/>
       <c r="O196" s="29"/>
-      <c r="P196" s="30"/>
-      <c r="Q196" s="31"/>
+      <c r="P196" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S196" s="36"/>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
@@ -5151,14 +6834,23 @@
       <c r="G197" s="22"/>
       <c r="H197" s="24"/>
       <c r="I197" s="24"/>
-      <c r="J197" s="25"/>
+      <c r="J197" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K197" s="26"/>
       <c r="L197" s="27"/>
       <c r="M197" s="26"/>
       <c r="N197" s="35"/>
       <c r="O197" s="29"/>
-      <c r="P197" s="30"/>
-      <c r="Q197" s="31"/>
+      <c r="P197" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S197" s="36"/>
     </row>
     <row r="198" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5171,14 +6863,23 @@
       <c r="G198" s="22"/>
       <c r="H198" s="24"/>
       <c r="I198" s="24"/>
-      <c r="J198" s="25"/>
+      <c r="J198" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K198" s="26"/>
       <c r="L198" s="27"/>
       <c r="M198" s="26"/>
       <c r="N198" s="35"/>
       <c r="O198" s="29"/>
-      <c r="P198" s="30"/>
-      <c r="Q198" s="31"/>
+      <c r="P198" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q198" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S198" s="36"/>
     </row>
     <row r="199" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5191,14 +6892,23 @@
       <c r="G199" s="22"/>
       <c r="H199" s="24"/>
       <c r="I199" s="24"/>
-      <c r="J199" s="25"/>
+      <c r="J199" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K199" s="26"/>
       <c r="L199" s="27"/>
       <c r="M199" s="26"/>
       <c r="N199" s="35"/>
       <c r="O199" s="29"/>
-      <c r="P199" s="30"/>
-      <c r="Q199" s="31"/>
+      <c r="P199" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q199" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S199" s="36"/>
     </row>
     <row r="200" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5211,14 +6921,23 @@
       <c r="G200" s="22"/>
       <c r="H200" s="24"/>
       <c r="I200" s="24"/>
-      <c r="J200" s="25"/>
+      <c r="J200" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K200" s="26"/>
       <c r="L200" s="27"/>
       <c r="M200" s="26"/>
       <c r="N200" s="35"/>
       <c r="O200" s="29"/>
-      <c r="P200" s="30"/>
-      <c r="Q200" s="31"/>
+      <c r="P200" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S200" s="36"/>
     </row>
     <row r="201" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,14 +6950,23 @@
       <c r="G201" s="22"/>
       <c r="H201" s="24"/>
       <c r="I201" s="24"/>
-      <c r="J201" s="25"/>
+      <c r="J201" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K201" s="26"/>
       <c r="L201" s="27"/>
       <c r="M201" s="26"/>
       <c r="N201" s="35"/>
       <c r="O201" s="29"/>
-      <c r="P201" s="30"/>
-      <c r="Q201" s="31"/>
+      <c r="P201" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q201" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S201" s="36"/>
     </row>
     <row r="202" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5251,14 +6979,23 @@
       <c r="G202" s="22"/>
       <c r="H202" s="24"/>
       <c r="I202" s="24"/>
-      <c r="J202" s="25"/>
+      <c r="J202" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K202" s="26"/>
       <c r="L202" s="27"/>
       <c r="M202" s="26"/>
       <c r="N202" s="35"/>
       <c r="O202" s="29"/>
-      <c r="P202" s="30"/>
-      <c r="Q202" s="31"/>
+      <c r="P202" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q202" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S202" s="36"/>
     </row>
     <row r="203" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,14 +7008,23 @@
       <c r="G203" s="22"/>
       <c r="H203" s="24"/>
       <c r="I203" s="24"/>
-      <c r="J203" s="25"/>
+      <c r="J203" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K203" s="26"/>
       <c r="L203" s="27"/>
       <c r="M203" s="26"/>
       <c r="N203" s="35"/>
       <c r="O203" s="29"/>
-      <c r="P203" s="30"/>
-      <c r="Q203" s="31"/>
+      <c r="P203" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q203" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S203" s="36"/>
     </row>
     <row r="204" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5291,14 +7037,23 @@
       <c r="G204" s="22"/>
       <c r="H204" s="24"/>
       <c r="I204" s="24"/>
-      <c r="J204" s="25"/>
+      <c r="J204" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K204" s="26"/>
       <c r="L204" s="27"/>
       <c r="M204" s="26"/>
       <c r="N204" s="35"/>
       <c r="O204" s="29"/>
-      <c r="P204" s="30"/>
-      <c r="Q204" s="31"/>
+      <c r="P204" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q204" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S204" s="36"/>
     </row>
     <row r="205" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5311,14 +7066,23 @@
       <c r="G205" s="22"/>
       <c r="H205" s="24"/>
       <c r="I205" s="24"/>
-      <c r="J205" s="25"/>
+      <c r="J205" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K205" s="26"/>
       <c r="L205" s="27"/>
       <c r="M205" s="26"/>
       <c r="N205" s="35"/>
       <c r="O205" s="29"/>
-      <c r="P205" s="30"/>
-      <c r="Q205" s="31"/>
+      <c r="P205" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q205" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S205" s="36"/>
     </row>
     <row r="206" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5331,14 +7095,23 @@
       <c r="G206" s="22"/>
       <c r="H206" s="24"/>
       <c r="I206" s="24"/>
-      <c r="J206" s="25"/>
+      <c r="J206" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K206" s="26"/>
       <c r="L206" s="27"/>
       <c r="M206" s="26"/>
       <c r="N206" s="35"/>
       <c r="O206" s="29"/>
-      <c r="P206" s="30"/>
-      <c r="Q206" s="31"/>
+      <c r="P206" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q206" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S206" s="36"/>
     </row>
     <row r="207" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5351,14 +7124,23 @@
       <c r="G207" s="22"/>
       <c r="H207" s="24"/>
       <c r="I207" s="24"/>
-      <c r="J207" s="25"/>
+      <c r="J207" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K207" s="26"/>
       <c r="L207" s="27"/>
       <c r="M207" s="26"/>
       <c r="N207" s="35"/>
       <c r="O207" s="29"/>
-      <c r="P207" s="30"/>
-      <c r="Q207" s="31"/>
+      <c r="P207" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q207" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S207" s="36"/>
     </row>
     <row r="208" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5371,14 +7153,23 @@
       <c r="G208" s="22"/>
       <c r="H208" s="24"/>
       <c r="I208" s="24"/>
-      <c r="J208" s="25"/>
+      <c r="J208" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K208" s="26"/>
       <c r="L208" s="27"/>
       <c r="M208" s="26"/>
       <c r="N208" s="35"/>
       <c r="O208" s="29"/>
-      <c r="P208" s="30"/>
-      <c r="Q208" s="31"/>
+      <c r="P208" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q208" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S208" s="36"/>
     </row>
     <row r="209" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5391,14 +7182,23 @@
       <c r="G209" s="22"/>
       <c r="H209" s="24"/>
       <c r="I209" s="24"/>
-      <c r="J209" s="25"/>
+      <c r="J209" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K209" s="26"/>
       <c r="L209" s="27"/>
       <c r="M209" s="26"/>
       <c r="N209" s="35"/>
       <c r="O209" s="29"/>
-      <c r="P209" s="30"/>
-      <c r="Q209" s="31"/>
+      <c r="P209" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q209" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S209" s="36"/>
     </row>
     <row r="210" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5411,14 +7211,23 @@
       <c r="G210" s="22"/>
       <c r="H210" s="24"/>
       <c r="I210" s="24"/>
-      <c r="J210" s="25"/>
+      <c r="J210" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K210" s="26"/>
       <c r="L210" s="27"/>
       <c r="M210" s="26"/>
       <c r="N210" s="35"/>
       <c r="O210" s="29"/>
-      <c r="P210" s="30"/>
-      <c r="Q210" s="31"/>
+      <c r="P210" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q210" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S210" s="36"/>
     </row>
     <row r="211" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,14 +7240,23 @@
       <c r="G211" s="22"/>
       <c r="H211" s="24"/>
       <c r="I211" s="24"/>
-      <c r="J211" s="25"/>
+      <c r="J211" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K211" s="26"/>
       <c r="L211" s="27"/>
       <c r="M211" s="26"/>
       <c r="N211" s="35"/>
       <c r="O211" s="29"/>
-      <c r="P211" s="30"/>
-      <c r="Q211" s="31"/>
+      <c r="P211" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q211" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S211" s="36"/>
     </row>
     <row r="212" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5451,14 +7269,23 @@
       <c r="G212" s="22"/>
       <c r="H212" s="24"/>
       <c r="I212" s="24"/>
-      <c r="J212" s="25"/>
+      <c r="J212" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K212" s="26"/>
       <c r="L212" s="27"/>
       <c r="M212" s="26"/>
       <c r="N212" s="35"/>
       <c r="O212" s="29"/>
-      <c r="P212" s="30"/>
-      <c r="Q212" s="31"/>
+      <c r="P212" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q212" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S212" s="36"/>
     </row>
     <row r="213" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,14 +7298,23 @@
       <c r="G213" s="22"/>
       <c r="H213" s="24"/>
       <c r="I213" s="24"/>
-      <c r="J213" s="25"/>
+      <c r="J213" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K213" s="26"/>
       <c r="L213" s="27"/>
       <c r="M213" s="26"/>
       <c r="N213" s="35"/>
       <c r="O213" s="29"/>
-      <c r="P213" s="30"/>
-      <c r="Q213" s="31"/>
+      <c r="P213" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q213" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S213" s="36"/>
     </row>
     <row r="214" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5491,14 +7327,23 @@
       <c r="G214" s="22"/>
       <c r="H214" s="24"/>
       <c r="I214" s="24"/>
-      <c r="J214" s="25"/>
+      <c r="J214" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K214" s="26"/>
       <c r="L214" s="27"/>
       <c r="M214" s="26"/>
       <c r="N214" s="35"/>
       <c r="O214" s="29"/>
-      <c r="P214" s="30"/>
-      <c r="Q214" s="31"/>
+      <c r="P214" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q214" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S214" s="36"/>
     </row>
     <row r="215" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5511,14 +7356,23 @@
       <c r="G215" s="22"/>
       <c r="H215" s="24"/>
       <c r="I215" s="24"/>
-      <c r="J215" s="25"/>
+      <c r="J215" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K215" s="26"/>
       <c r="L215" s="27"/>
       <c r="M215" s="26"/>
       <c r="N215" s="35"/>
       <c r="O215" s="29"/>
-      <c r="P215" s="30"/>
-      <c r="Q215" s="31"/>
+      <c r="P215" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q215" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S215" s="36"/>
     </row>
     <row r="216" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,14 +7385,23 @@
       <c r="G216" s="22"/>
       <c r="H216" s="24"/>
       <c r="I216" s="24"/>
-      <c r="J216" s="25"/>
+      <c r="J216" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K216" s="26"/>
       <c r="L216" s="27"/>
       <c r="M216" s="26"/>
       <c r="N216" s="35"/>
       <c r="O216" s="29"/>
-      <c r="P216" s="30"/>
-      <c r="Q216" s="31"/>
+      <c r="P216" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q216" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S216" s="36"/>
     </row>
     <row r="217" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5551,14 +7414,23 @@
       <c r="G217" s="22"/>
       <c r="H217" s="24"/>
       <c r="I217" s="24"/>
-      <c r="J217" s="25"/>
+      <c r="J217" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K217" s="26"/>
       <c r="L217" s="27"/>
       <c r="M217" s="26"/>
       <c r="N217" s="35"/>
       <c r="O217" s="29"/>
-      <c r="P217" s="30"/>
-      <c r="Q217" s="31"/>
+      <c r="P217" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q217" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S217" s="36"/>
     </row>
     <row r="218" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5571,14 +7443,23 @@
       <c r="G218" s="22"/>
       <c r="H218" s="24"/>
       <c r="I218" s="24"/>
-      <c r="J218" s="25"/>
+      <c r="J218" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K218" s="26"/>
       <c r="L218" s="27"/>
       <c r="M218" s="26"/>
       <c r="N218" s="35"/>
       <c r="O218" s="29"/>
-      <c r="P218" s="30"/>
-      <c r="Q218" s="31"/>
+      <c r="P218" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q218" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S218" s="36"/>
     </row>
     <row r="219" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5591,14 +7472,23 @@
       <c r="G219" s="22"/>
       <c r="H219" s="24"/>
       <c r="I219" s="24"/>
-      <c r="J219" s="25"/>
+      <c r="J219" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K219" s="26"/>
       <c r="L219" s="27"/>
       <c r="M219" s="26"/>
       <c r="N219" s="35"/>
       <c r="O219" s="29"/>
-      <c r="P219" s="30"/>
-      <c r="Q219" s="31"/>
+      <c r="P219" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q219" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S219" s="36"/>
     </row>
     <row r="220" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5611,14 +7501,23 @@
       <c r="G220" s="22"/>
       <c r="H220" s="24"/>
       <c r="I220" s="24"/>
-      <c r="J220" s="25"/>
+      <c r="J220" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K220" s="26"/>
       <c r="L220" s="27"/>
       <c r="M220" s="26"/>
       <c r="N220" s="35"/>
       <c r="O220" s="29"/>
-      <c r="P220" s="30"/>
-      <c r="Q220" s="31"/>
+      <c r="P220" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q220" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S220" s="36"/>
     </row>
     <row r="221" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5631,14 +7530,23 @@
       <c r="G221" s="22"/>
       <c r="H221" s="24"/>
       <c r="I221" s="24"/>
-      <c r="J221" s="25"/>
+      <c r="J221" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K221" s="26"/>
       <c r="L221" s="27"/>
       <c r="M221" s="26"/>
       <c r="N221" s="35"/>
       <c r="O221" s="29"/>
-      <c r="P221" s="30"/>
-      <c r="Q221" s="31"/>
+      <c r="P221" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q221" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S221" s="36"/>
     </row>
     <row r="222" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5651,14 +7559,23 @@
       <c r="G222" s="22"/>
       <c r="H222" s="24"/>
       <c r="I222" s="24"/>
-      <c r="J222" s="25"/>
+      <c r="J222" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K222" s="26"/>
       <c r="L222" s="27"/>
       <c r="M222" s="26"/>
       <c r="N222" s="35"/>
       <c r="O222" s="29"/>
-      <c r="P222" s="30"/>
-      <c r="Q222" s="31"/>
+      <c r="P222" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q222" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S222" s="36"/>
     </row>
     <row r="223" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5671,14 +7588,23 @@
       <c r="G223" s="22"/>
       <c r="H223" s="24"/>
       <c r="I223" s="24"/>
-      <c r="J223" s="25"/>
+      <c r="J223" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K223" s="26"/>
       <c r="L223" s="27"/>
       <c r="M223" s="26"/>
       <c r="N223" s="35"/>
       <c r="O223" s="29"/>
-      <c r="P223" s="30"/>
-      <c r="Q223" s="31"/>
+      <c r="P223" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q223" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S223" s="36"/>
     </row>
     <row r="224" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,14 +7617,23 @@
       <c r="G224" s="22"/>
       <c r="H224" s="24"/>
       <c r="I224" s="24"/>
-      <c r="J224" s="25"/>
+      <c r="J224" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K224" s="26"/>
       <c r="L224" s="27"/>
       <c r="M224" s="26"/>
       <c r="N224" s="35"/>
       <c r="O224" s="29"/>
-      <c r="P224" s="30"/>
-      <c r="Q224" s="31"/>
+      <c r="P224" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q224" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="S224" s="36"/>
     </row>
     <row r="225" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5711,14 +7646,23 @@
       <c r="G225" s="22"/>
       <c r="H225" s="24"/>
       <c r="I225" s="24"/>
-      <c r="J225" s="25"/>
+      <c r="J225" s="25">
+        <f t="shared" ref="J225:J261" si="12">SUM(H225:I225)</f>
+        <v>0</v>
+      </c>
       <c r="K225" s="26"/>
       <c r="L225" s="27"/>
       <c r="M225" s="26"/>
       <c r="N225" s="35"/>
       <c r="O225" s="29"/>
-      <c r="P225" s="30"/>
-      <c r="Q225" s="31"/>
+      <c r="P225" s="30">
+        <f t="shared" ref="P225:P261" si="13">SUM(N225:O225)</f>
+        <v>0</v>
+      </c>
+      <c r="Q225" s="31">
+        <f t="shared" ref="Q225:Q261" si="14">SUM(P225,J225)</f>
+        <v>0</v>
+      </c>
       <c r="S225" s="36"/>
     </row>
     <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5731,14 +7675,23 @@
       <c r="G226" s="22"/>
       <c r="H226" s="24"/>
       <c r="I226" s="24"/>
-      <c r="J226" s="25"/>
+      <c r="J226" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K226" s="26"/>
       <c r="L226" s="27"/>
       <c r="M226" s="26"/>
       <c r="N226" s="35"/>
       <c r="O226" s="29"/>
-      <c r="P226" s="30"/>
-      <c r="Q226" s="31"/>
+      <c r="P226" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q226" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S226" s="36"/>
     </row>
     <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5751,14 +7704,23 @@
       <c r="G227" s="22"/>
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
-      <c r="J227" s="25"/>
+      <c r="J227" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K227" s="26"/>
       <c r="L227" s="27"/>
       <c r="M227" s="26"/>
       <c r="N227" s="35"/>
       <c r="O227" s="29"/>
-      <c r="P227" s="30"/>
-      <c r="Q227" s="31"/>
+      <c r="P227" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q227" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S227" s="36"/>
     </row>
     <row r="228" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5771,14 +7733,23 @@
       <c r="G228" s="22"/>
       <c r="H228" s="24"/>
       <c r="I228" s="24"/>
-      <c r="J228" s="25"/>
+      <c r="J228" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K228" s="26"/>
       <c r="L228" s="27"/>
       <c r="M228" s="26"/>
       <c r="N228" s="35"/>
       <c r="O228" s="29"/>
-      <c r="P228" s="30"/>
-      <c r="Q228" s="31"/>
+      <c r="P228" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q228" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S228" s="36"/>
     </row>
     <row r="229" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5791,14 +7762,23 @@
       <c r="G229" s="22"/>
       <c r="H229" s="24"/>
       <c r="I229" s="24"/>
-      <c r="J229" s="25"/>
+      <c r="J229" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K229" s="26"/>
       <c r="L229" s="27"/>
       <c r="M229" s="26"/>
       <c r="N229" s="35"/>
       <c r="O229" s="29"/>
-      <c r="P229" s="30"/>
-      <c r="Q229" s="31"/>
+      <c r="P229" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q229" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S229" s="36"/>
     </row>
     <row r="230" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5811,14 +7791,23 @@
       <c r="G230" s="22"/>
       <c r="H230" s="24"/>
       <c r="I230" s="24"/>
-      <c r="J230" s="25"/>
+      <c r="J230" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K230" s="26"/>
       <c r="L230" s="27"/>
       <c r="M230" s="26"/>
       <c r="N230" s="35"/>
       <c r="O230" s="29"/>
-      <c r="P230" s="30"/>
-      <c r="Q230" s="31"/>
+      <c r="P230" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q230" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S230" s="36"/>
     </row>
     <row r="231" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,14 +7820,23 @@
       <c r="G231" s="22"/>
       <c r="H231" s="24"/>
       <c r="I231" s="24"/>
-      <c r="J231" s="25"/>
+      <c r="J231" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K231" s="26"/>
       <c r="L231" s="27"/>
       <c r="M231" s="26"/>
       <c r="N231" s="35"/>
       <c r="O231" s="29"/>
-      <c r="P231" s="30"/>
-      <c r="Q231" s="31"/>
+      <c r="P231" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q231" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S231" s="36"/>
     </row>
     <row r="232" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5851,14 +7849,23 @@
       <c r="G232" s="22"/>
       <c r="H232" s="24"/>
       <c r="I232" s="24"/>
-      <c r="J232" s="25"/>
+      <c r="J232" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K232" s="26"/>
       <c r="L232" s="27"/>
       <c r="M232" s="26"/>
       <c r="N232" s="35"/>
       <c r="O232" s="29"/>
-      <c r="P232" s="30"/>
-      <c r="Q232" s="31"/>
+      <c r="P232" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q232" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S232" s="36"/>
     </row>
     <row r="233" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5871,14 +7878,23 @@
       <c r="G233" s="22"/>
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
-      <c r="J233" s="25"/>
+      <c r="J233" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K233" s="26"/>
       <c r="L233" s="27"/>
       <c r="M233" s="26"/>
       <c r="N233" s="35"/>
       <c r="O233" s="29"/>
-      <c r="P233" s="30"/>
-      <c r="Q233" s="31"/>
+      <c r="P233" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q233" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S233" s="36"/>
     </row>
     <row r="234" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5891,14 +7907,23 @@
       <c r="G234" s="22"/>
       <c r="H234" s="24"/>
       <c r="I234" s="24"/>
-      <c r="J234" s="25"/>
+      <c r="J234" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K234" s="26"/>
       <c r="L234" s="27"/>
       <c r="M234" s="26"/>
       <c r="N234" s="35"/>
       <c r="O234" s="29"/>
-      <c r="P234" s="30"/>
-      <c r="Q234" s="31"/>
+      <c r="P234" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q234" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S234" s="36"/>
     </row>
     <row r="235" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5911,14 +7936,23 @@
       <c r="G235" s="22"/>
       <c r="H235" s="24"/>
       <c r="I235" s="24"/>
-      <c r="J235" s="25"/>
+      <c r="J235" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K235" s="26"/>
       <c r="L235" s="27"/>
       <c r="M235" s="26"/>
       <c r="N235" s="35"/>
       <c r="O235" s="29"/>
-      <c r="P235" s="30"/>
-      <c r="Q235" s="31"/>
+      <c r="P235" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q235" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S235" s="36"/>
     </row>
     <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5931,14 +7965,23 @@
       <c r="G236" s="22"/>
       <c r="H236" s="24"/>
       <c r="I236" s="24"/>
-      <c r="J236" s="25"/>
+      <c r="J236" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K236" s="26"/>
       <c r="L236" s="27"/>
       <c r="M236" s="26"/>
       <c r="N236" s="35"/>
       <c r="O236" s="29"/>
-      <c r="P236" s="30"/>
-      <c r="Q236" s="31"/>
+      <c r="P236" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q236" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S236" s="36"/>
     </row>
     <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5951,14 +7994,23 @@
       <c r="G237" s="22"/>
       <c r="H237" s="24"/>
       <c r="I237" s="24"/>
-      <c r="J237" s="25"/>
+      <c r="J237" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K237" s="26"/>
       <c r="L237" s="27"/>
       <c r="M237" s="26"/>
       <c r="N237" s="35"/>
       <c r="O237" s="29"/>
-      <c r="P237" s="30"/>
-      <c r="Q237" s="31"/>
+      <c r="P237" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q237" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S237" s="36"/>
     </row>
     <row r="238" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5971,14 +8023,23 @@
       <c r="G238" s="22"/>
       <c r="H238" s="24"/>
       <c r="I238" s="24"/>
-      <c r="J238" s="25"/>
+      <c r="J238" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K238" s="26"/>
       <c r="L238" s="27"/>
       <c r="M238" s="26"/>
       <c r="N238" s="35"/>
       <c r="O238" s="29"/>
-      <c r="P238" s="30"/>
-      <c r="Q238" s="31"/>
+      <c r="P238" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q238" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S238" s="36"/>
     </row>
     <row r="239" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5991,14 +8052,23 @@
       <c r="G239" s="22"/>
       <c r="H239" s="24"/>
       <c r="I239" s="24"/>
-      <c r="J239" s="25"/>
+      <c r="J239" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K239" s="26"/>
       <c r="L239" s="27"/>
       <c r="M239" s="26"/>
       <c r="N239" s="35"/>
       <c r="O239" s="29"/>
-      <c r="P239" s="30"/>
-      <c r="Q239" s="31"/>
+      <c r="P239" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q239" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S239" s="36"/>
     </row>
     <row r="240" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6011,14 +8081,23 @@
       <c r="G240" s="22"/>
       <c r="H240" s="24"/>
       <c r="I240" s="24"/>
-      <c r="J240" s="25"/>
+      <c r="J240" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K240" s="26"/>
       <c r="L240" s="27"/>
       <c r="M240" s="26"/>
       <c r="N240" s="35"/>
       <c r="O240" s="29"/>
-      <c r="P240" s="30"/>
-      <c r="Q240" s="31"/>
+      <c r="P240" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q240" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S240" s="36"/>
     </row>
     <row r="241" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6031,14 +8110,23 @@
       <c r="G241" s="22"/>
       <c r="H241" s="24"/>
       <c r="I241" s="24"/>
-      <c r="J241" s="25"/>
+      <c r="J241" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K241" s="26"/>
       <c r="L241" s="27"/>
       <c r="M241" s="26"/>
       <c r="N241" s="35"/>
       <c r="O241" s="29"/>
-      <c r="P241" s="30"/>
-      <c r="Q241" s="31"/>
+      <c r="P241" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q241" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S241" s="36"/>
     </row>
     <row r="242" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6051,14 +8139,23 @@
       <c r="G242" s="22"/>
       <c r="H242" s="24"/>
       <c r="I242" s="24"/>
-      <c r="J242" s="25"/>
+      <c r="J242" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K242" s="26"/>
       <c r="L242" s="27"/>
       <c r="M242" s="26"/>
       <c r="N242" s="35"/>
       <c r="O242" s="29"/>
-      <c r="P242" s="30"/>
-      <c r="Q242" s="31"/>
+      <c r="P242" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q242" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S242" s="36"/>
     </row>
     <row r="243" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6071,14 +8168,23 @@
       <c r="G243" s="22"/>
       <c r="H243" s="24"/>
       <c r="I243" s="24"/>
-      <c r="J243" s="25"/>
+      <c r="J243" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K243" s="26"/>
       <c r="L243" s="27"/>
       <c r="M243" s="26"/>
       <c r="N243" s="35"/>
       <c r="O243" s="29"/>
-      <c r="P243" s="30"/>
-      <c r="Q243" s="31"/>
+      <c r="P243" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q243" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S243" s="36"/>
     </row>
     <row r="244" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6091,14 +8197,23 @@
       <c r="G244" s="22"/>
       <c r="H244" s="24"/>
       <c r="I244" s="24"/>
-      <c r="J244" s="25"/>
+      <c r="J244" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K244" s="26"/>
       <c r="L244" s="27"/>
       <c r="M244" s="26"/>
       <c r="N244" s="35"/>
       <c r="O244" s="29"/>
-      <c r="P244" s="30"/>
-      <c r="Q244" s="31"/>
+      <c r="P244" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q244" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S244" s="36"/>
     </row>
     <row r="245" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6111,14 +8226,23 @@
       <c r="G245" s="22"/>
       <c r="H245" s="24"/>
       <c r="I245" s="24"/>
-      <c r="J245" s="25"/>
+      <c r="J245" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K245" s="26"/>
       <c r="L245" s="27"/>
       <c r="M245" s="26"/>
       <c r="N245" s="35"/>
       <c r="O245" s="29"/>
-      <c r="P245" s="30"/>
-      <c r="Q245" s="31"/>
+      <c r="P245" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q245" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S245" s="36"/>
     </row>
     <row r="246" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6131,14 +8255,23 @@
       <c r="G246" s="22"/>
       <c r="H246" s="24"/>
       <c r="I246" s="24"/>
-      <c r="J246" s="25"/>
+      <c r="J246" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K246" s="26"/>
       <c r="L246" s="27"/>
       <c r="M246" s="26"/>
       <c r="N246" s="35"/>
       <c r="O246" s="29"/>
-      <c r="P246" s="30"/>
-      <c r="Q246" s="31"/>
+      <c r="P246" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q246" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S246" s="36"/>
     </row>
     <row r="247" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6151,14 +8284,23 @@
       <c r="G247" s="22"/>
       <c r="H247" s="24"/>
       <c r="I247" s="24"/>
-      <c r="J247" s="25"/>
+      <c r="J247" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K247" s="26"/>
       <c r="L247" s="27"/>
       <c r="M247" s="26"/>
       <c r="N247" s="35"/>
       <c r="O247" s="29"/>
-      <c r="P247" s="30"/>
-      <c r="Q247" s="31"/>
+      <c r="P247" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q247" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S247" s="36"/>
     </row>
     <row r="248" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6171,14 +8313,23 @@
       <c r="G248" s="22"/>
       <c r="H248" s="24"/>
       <c r="I248" s="24"/>
-      <c r="J248" s="25"/>
+      <c r="J248" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K248" s="26"/>
       <c r="L248" s="27"/>
       <c r="M248" s="26"/>
       <c r="N248" s="35"/>
       <c r="O248" s="29"/>
-      <c r="P248" s="30"/>
-      <c r="Q248" s="31"/>
+      <c r="P248" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q248" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S248" s="36"/>
     </row>
     <row r="249" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6191,14 +8342,23 @@
       <c r="G249" s="22"/>
       <c r="H249" s="24"/>
       <c r="I249" s="24"/>
-      <c r="J249" s="25"/>
+      <c r="J249" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K249" s="26"/>
       <c r="L249" s="27"/>
       <c r="M249" s="26"/>
       <c r="N249" s="35"/>
       <c r="O249" s="29"/>
-      <c r="P249" s="30"/>
-      <c r="Q249" s="31"/>
+      <c r="P249" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q249" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S249" s="36"/>
     </row>
     <row r="250" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6211,14 +8371,23 @@
       <c r="G250" s="22"/>
       <c r="H250" s="24"/>
       <c r="I250" s="24"/>
-      <c r="J250" s="25"/>
+      <c r="J250" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K250" s="26"/>
       <c r="L250" s="27"/>
       <c r="M250" s="26"/>
       <c r="N250" s="35"/>
       <c r="O250" s="29"/>
-      <c r="P250" s="30"/>
-      <c r="Q250" s="31"/>
+      <c r="P250" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q250" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S250" s="36"/>
     </row>
     <row r="251" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6231,14 +8400,23 @@
       <c r="G251" s="22"/>
       <c r="H251" s="24"/>
       <c r="I251" s="24"/>
-      <c r="J251" s="25"/>
+      <c r="J251" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K251" s="26"/>
       <c r="L251" s="27"/>
       <c r="M251" s="26"/>
       <c r="N251" s="35"/>
       <c r="O251" s="29"/>
-      <c r="P251" s="30"/>
-      <c r="Q251" s="31"/>
+      <c r="P251" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q251" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S251" s="36"/>
     </row>
     <row r="252" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6251,14 +8429,23 @@
       <c r="G252" s="22"/>
       <c r="H252" s="24"/>
       <c r="I252" s="24"/>
-      <c r="J252" s="25"/>
+      <c r="J252" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K252" s="26"/>
       <c r="L252" s="27"/>
       <c r="M252" s="26"/>
       <c r="N252" s="35"/>
       <c r="O252" s="29"/>
-      <c r="P252" s="30"/>
-      <c r="Q252" s="31"/>
+      <c r="P252" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q252" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S252" s="36"/>
     </row>
     <row r="253" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6271,14 +8458,23 @@
       <c r="G253" s="22"/>
       <c r="H253" s="24"/>
       <c r="I253" s="24"/>
-      <c r="J253" s="25"/>
+      <c r="J253" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K253" s="26"/>
       <c r="L253" s="27"/>
       <c r="M253" s="26"/>
       <c r="N253" s="35"/>
       <c r="O253" s="29"/>
-      <c r="P253" s="30"/>
-      <c r="Q253" s="31"/>
+      <c r="P253" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q253" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S253" s="36"/>
     </row>
     <row r="254" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6291,14 +8487,23 @@
       <c r="G254" s="22"/>
       <c r="H254" s="24"/>
       <c r="I254" s="24"/>
-      <c r="J254" s="25"/>
+      <c r="J254" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K254" s="26"/>
       <c r="L254" s="27"/>
       <c r="M254" s="26"/>
       <c r="N254" s="35"/>
       <c r="O254" s="29"/>
-      <c r="P254" s="30"/>
-      <c r="Q254" s="31"/>
+      <c r="P254" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q254" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S254" s="36"/>
     </row>
     <row r="255" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6311,14 +8516,23 @@
       <c r="G255" s="22"/>
       <c r="H255" s="24"/>
       <c r="I255" s="24"/>
-      <c r="J255" s="25"/>
+      <c r="J255" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K255" s="26"/>
       <c r="L255" s="27"/>
       <c r="M255" s="26"/>
       <c r="N255" s="35"/>
       <c r="O255" s="29"/>
-      <c r="P255" s="30"/>
-      <c r="Q255" s="31"/>
+      <c r="P255" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q255" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S255" s="36"/>
     </row>
     <row r="256" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6331,14 +8545,23 @@
       <c r="G256" s="22"/>
       <c r="H256" s="24"/>
       <c r="I256" s="24"/>
-      <c r="J256" s="25"/>
+      <c r="J256" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K256" s="26"/>
       <c r="L256" s="27"/>
       <c r="M256" s="26"/>
       <c r="N256" s="35"/>
       <c r="O256" s="29"/>
-      <c r="P256" s="30"/>
-      <c r="Q256" s="31"/>
+      <c r="P256" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q256" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S256" s="36"/>
     </row>
     <row r="257" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6351,14 +8574,23 @@
       <c r="G257" s="22"/>
       <c r="H257" s="24"/>
       <c r="I257" s="24"/>
-      <c r="J257" s="25"/>
+      <c r="J257" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K257" s="26"/>
       <c r="L257" s="27"/>
       <c r="M257" s="26"/>
       <c r="N257" s="35"/>
       <c r="O257" s="29"/>
-      <c r="P257" s="30"/>
-      <c r="Q257" s="31"/>
+      <c r="P257" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q257" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S257" s="36"/>
     </row>
     <row r="258" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6371,14 +8603,23 @@
       <c r="G258" s="22"/>
       <c r="H258" s="24"/>
       <c r="I258" s="24"/>
-      <c r="J258" s="25"/>
+      <c r="J258" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K258" s="26"/>
       <c r="L258" s="27"/>
       <c r="M258" s="26"/>
       <c r="N258" s="35"/>
       <c r="O258" s="29"/>
-      <c r="P258" s="30"/>
-      <c r="Q258" s="31"/>
+      <c r="P258" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q258" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S258" s="36"/>
     </row>
     <row r="259" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,14 +8632,23 @@
       <c r="G259" s="22"/>
       <c r="H259" s="24"/>
       <c r="I259" s="24"/>
-      <c r="J259" s="25"/>
+      <c r="J259" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K259" s="26"/>
       <c r="L259" s="27"/>
       <c r="M259" s="26"/>
       <c r="N259" s="35"/>
       <c r="O259" s="29"/>
-      <c r="P259" s="30"/>
-      <c r="Q259" s="31"/>
+      <c r="P259" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q259" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S259" s="36"/>
     </row>
     <row r="260" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6411,14 +8661,23 @@
       <c r="G260" s="22"/>
       <c r="H260" s="24"/>
       <c r="I260" s="24"/>
-      <c r="J260" s="25"/>
+      <c r="J260" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K260" s="26"/>
       <c r="L260" s="27"/>
       <c r="M260" s="26"/>
       <c r="N260" s="35"/>
       <c r="O260" s="29"/>
-      <c r="P260" s="30"/>
-      <c r="Q260" s="31"/>
+      <c r="P260" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q260" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S260" s="36"/>
     </row>
     <row r="261" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6431,14 +8690,23 @@
       <c r="G261" s="22"/>
       <c r="H261" s="24"/>
       <c r="I261" s="24"/>
-      <c r="J261" s="25"/>
+      <c r="J261" s="25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K261" s="26"/>
       <c r="L261" s="27"/>
       <c r="M261" s="26"/>
       <c r="N261" s="35"/>
       <c r="O261" s="29"/>
-      <c r="P261" s="30"/>
-      <c r="Q261" s="31"/>
+      <c r="P261" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q261" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="S261" s="36"/>
     </row>
     <row r="262" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6452,13 +8720,16 @@
       <c r="F262" s="27"/>
       <c r="G262" s="42"/>
       <c r="H262" s="43">
-        <v>72</v>
+        <f>SUM(H32:H261,H8:H30)</f>
+        <v>0</v>
       </c>
       <c r="I262" s="44">
-        <v>18</v>
+        <f>SUM(I32:I261,I8:I30)</f>
+        <v>0</v>
       </c>
       <c r="J262" s="45">
-        <v>90</v>
+        <f>SUM(J32:J261,J8:J30)</f>
+        <v>0</v>
       </c>
       <c r="K262" s="46"/>
       <c r="L262" s="47"/>
@@ -6470,10 +8741,12 @@
         <v>0</v>
       </c>
       <c r="P262" s="49">
+        <f>SUM(P32:P261,P8:P30)</f>
         <v>0</v>
       </c>
       <c r="Q262" s="46">
-        <v>90</v>
+        <f>SUM(Q32:Q261,Q8:Q30)</f>
+        <v>0</v>
       </c>
       <c r="S262" s="36"/>
     </row>
@@ -6489,1706 +8762,285 @@
       <c r="J264" s="54"/>
     </row>
     <row r="265" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="60"/>
-      <c r="B265" s="65"/>
-      <c r="C265" s="65"/>
-      <c r="D265" s="61"/>
-      <c r="E265" s="61"/>
-      <c r="F265" s="61"/>
-      <c r="G265" s="61"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
       <c r="H265" s="55"/>
       <c r="I265" s="55"/>
     </row>
     <row r="266" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="60"/>
-      <c r="B266" s="60"/>
-      <c r="C266" s="61"/>
-      <c r="D266" s="61"/>
-      <c r="E266" s="61"/>
-      <c r="F266" s="61"/>
-      <c r="G266" s="61"/>
+      <c r="C266" s="55"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
       <c r="H266" s="55"/>
       <c r="I266" s="55"/>
     </row>
     <row r="267" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="60"/>
-      <c r="B267" s="60"/>
-      <c r="C267" s="61"/>
-      <c r="D267" s="61"/>
-      <c r="E267" s="61"/>
-      <c r="F267" s="61"/>
-      <c r="G267" s="61"/>
+      <c r="C267" s="55"/>
+      <c r="D267" s="55"/>
+      <c r="E267" s="55"/>
+      <c r="F267" s="55"/>
+      <c r="G267" s="55"/>
       <c r="H267" s="55"/>
       <c r="I267" s="55"/>
     </row>
     <row r="268" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="60"/>
-      <c r="B268" s="60"/>
-      <c r="C268" s="61"/>
-      <c r="D268" s="61"/>
-      <c r="E268" s="61"/>
-      <c r="F268" s="61"/>
-      <c r="G268" s="61"/>
+      <c r="C268" s="55"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
       <c r="H268" s="55"/>
       <c r="I268" s="55"/>
     </row>
     <row r="269" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="60"/>
-      <c r="B269" s="60"/>
-      <c r="C269" s="61"/>
-      <c r="D269" s="61"/>
-      <c r="E269" s="61"/>
-      <c r="F269" s="61"/>
-      <c r="G269" s="61"/>
+      <c r="C269" s="55"/>
+      <c r="D269" s="55"/>
+      <c r="E269" s="55"/>
+      <c r="F269" s="55"/>
+      <c r="G269" s="55"/>
       <c r="H269" s="55"/>
       <c r="I269" s="55"/>
       <c r="J269" s="56"/>
     </row>
     <row r="270" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="60"/>
-      <c r="B270" s="60"/>
-      <c r="C270" s="61"/>
-      <c r="D270" s="61"/>
-      <c r="E270" s="60"/>
-      <c r="F270" s="60"/>
-      <c r="G270" s="60"/>
+      <c r="C270" s="55"/>
+      <c r="D270" s="55"/>
       <c r="H270"/>
       <c r="I270"/>
       <c r="J270"/>
     </row>
     <row r="271" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="60"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="61"/>
-      <c r="D271" s="61"/>
-      <c r="E271" s="60"/>
-      <c r="F271" s="60"/>
-      <c r="G271" s="60"/>
+      <c r="B271" s="59"/>
+      <c r="C271" s="55"/>
+      <c r="D271" s="55"/>
       <c r="H271"/>
       <c r="I271"/>
       <c r="J271"/>
     </row>
     <row r="272" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="60"/>
-      <c r="B272" s="60"/>
-      <c r="C272" s="61"/>
-      <c r="D272" s="61"/>
-      <c r="E272" s="60"/>
-      <c r="F272" s="60"/>
-      <c r="G272" s="60"/>
+      <c r="C272" s="55"/>
+      <c r="D272" s="55"/>
       <c r="H272"/>
       <c r="I272"/>
       <c r="J272"/>
     </row>
-    <row r="273" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="60"/>
-      <c r="B273" s="60"/>
-      <c r="C273" s="60"/>
-      <c r="D273" s="60"/>
-      <c r="E273" s="60"/>
-      <c r="F273" s="60"/>
-      <c r="G273" s="60"/>
+    <row r="273" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H273"/>
       <c r="I273"/>
       <c r="J273"/>
     </row>
-    <row r="274" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="60"/>
-      <c r="B274" s="62"/>
-      <c r="C274" s="60"/>
-      <c r="D274" s="60"/>
-      <c r="E274" s="60"/>
-      <c r="F274" s="60"/>
-      <c r="G274" s="60"/>
+    <row r="274" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="59"/>
       <c r="H274"/>
       <c r="I274"/>
       <c r="J274"/>
     </row>
-    <row r="275" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="60"/>
-      <c r="B275" s="63"/>
-      <c r="C275" s="60"/>
-      <c r="D275" s="60"/>
-      <c r="E275" s="60"/>
-      <c r="F275" s="60"/>
-      <c r="G275" s="60"/>
+    <row r="275" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="60"/>
       <c r="H275"/>
       <c r="I275"/>
       <c r="J275"/>
     </row>
-    <row r="276" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="60"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="60"/>
-      <c r="D276" s="60"/>
-      <c r="E276" s="60"/>
-      <c r="F276" s="60"/>
-      <c r="G276" s="60"/>
+    <row r="276" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H276" t="s">
         <v>15</v>
       </c>
       <c r="I276"/>
       <c r="J276"/>
     </row>
-    <row r="277" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="60"/>
-      <c r="B277" s="60"/>
-      <c r="C277" s="60"/>
-      <c r="D277" s="60"/>
-      <c r="E277" s="60"/>
-      <c r="F277" s="60"/>
-      <c r="G277" s="60"/>
+    <row r="277" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H277"/>
       <c r="I277"/>
       <c r="J277"/>
     </row>
-    <row r="278" spans="1:20" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="64"/>
-      <c r="B278" s="64"/>
-      <c r="C278" s="64"/>
-      <c r="D278" s="64"/>
-      <c r="E278" s="60"/>
-      <c r="F278" s="60"/>
-      <c r="G278" s="60"/>
+    <row r="278" spans="2:20" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E278"/>
+      <c r="F278"/>
+      <c r="G278"/>
       <c r="H278"/>
       <c r="I278"/>
       <c r="J278"/>
       <c r="S278"/>
       <c r="T278"/>
     </row>
-    <row r="279" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="60"/>
-      <c r="B279" s="60"/>
-      <c r="C279" s="60"/>
-      <c r="D279" s="60"/>
-      <c r="E279" s="60"/>
-      <c r="F279" s="60"/>
-      <c r="G279" s="60"/>
+    <row r="279" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H279"/>
       <c r="I279"/>
       <c r="J279"/>
     </row>
-    <row r="280" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="60"/>
-      <c r="B280" s="60"/>
-      <c r="C280" s="60"/>
-      <c r="D280" s="60"/>
-      <c r="E280" s="60"/>
-      <c r="F280" s="60"/>
-      <c r="G280" s="60"/>
-    </row>
-    <row r="281" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="60"/>
-      <c r="B281" s="60"/>
-      <c r="C281" s="60"/>
-      <c r="D281" s="60"/>
-      <c r="E281" s="60"/>
-      <c r="F281" s="60"/>
-      <c r="G281" s="60"/>
-    </row>
-    <row r="282" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="60"/>
-      <c r="B282" s="60"/>
-      <c r="C282" s="60"/>
-      <c r="D282" s="60"/>
-      <c r="E282" s="60"/>
-      <c r="F282" s="60"/>
-      <c r="G282" s="60"/>
-    </row>
-    <row r="283" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="60"/>
-      <c r="B283" s="60"/>
-      <c r="C283" s="60"/>
-      <c r="D283" s="60"/>
-      <c r="E283" s="60"/>
-      <c r="F283" s="60"/>
-      <c r="G283" s="60"/>
-    </row>
-    <row r="284" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="60"/>
-      <c r="B284" s="60"/>
-      <c r="C284" s="60"/>
-      <c r="D284" s="60"/>
-      <c r="E284" s="60"/>
-      <c r="F284" s="60"/>
-      <c r="G284" s="60"/>
-    </row>
-    <row r="285" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="60"/>
-      <c r="B285" s="60"/>
-      <c r="C285" s="60"/>
-      <c r="D285" s="60"/>
-      <c r="E285" s="60"/>
-      <c r="F285" s="60"/>
-      <c r="G285" s="60"/>
-    </row>
-    <row r="286" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="60"/>
-      <c r="B286" s="60"/>
-      <c r="C286" s="60"/>
-      <c r="D286" s="60"/>
-      <c r="E286" s="60"/>
-      <c r="F286" s="60"/>
-      <c r="G286" s="60"/>
-    </row>
-    <row r="287" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="60"/>
-      <c r="B287" s="60"/>
-      <c r="C287" s="60"/>
-      <c r="D287" s="60"/>
-      <c r="E287" s="60"/>
-      <c r="F287" s="60"/>
-      <c r="G287" s="60"/>
-    </row>
-    <row r="288" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="60"/>
-      <c r="B288" s="60"/>
-      <c r="C288" s="60"/>
-      <c r="D288" s="60"/>
-      <c r="E288" s="60"/>
-      <c r="F288" s="60"/>
-      <c r="G288" s="60"/>
-    </row>
-    <row r="289" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="60"/>
-      <c r="B289" s="60"/>
-      <c r="C289" s="60"/>
-      <c r="D289" s="60"/>
-      <c r="E289" s="60"/>
-      <c r="F289" s="60"/>
-      <c r="G289" s="60"/>
-    </row>
-    <row r="290" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="60"/>
-      <c r="B290" s="60"/>
-      <c r="C290" s="60"/>
-      <c r="D290" s="60"/>
-      <c r="E290" s="60"/>
-      <c r="F290" s="60"/>
-      <c r="G290" s="60"/>
-    </row>
-    <row r="291" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="60"/>
-      <c r="B291" s="60"/>
-      <c r="C291" s="60"/>
-      <c r="D291" s="60"/>
-      <c r="E291" s="60"/>
-      <c r="F291" s="60"/>
-      <c r="G291" s="60"/>
-    </row>
-    <row r="292" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="60"/>
-      <c r="B292" s="60"/>
-      <c r="C292" s="60"/>
-      <c r="D292" s="60"/>
-      <c r="E292" s="60"/>
-      <c r="F292" s="60"/>
-      <c r="G292" s="60"/>
-    </row>
-    <row r="293" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="60"/>
-      <c r="B293" s="60"/>
-      <c r="C293" s="60"/>
-      <c r="D293" s="60"/>
-      <c r="E293" s="60"/>
-      <c r="F293" s="60"/>
-      <c r="G293" s="60"/>
-    </row>
-    <row r="294" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="60"/>
-      <c r="B294" s="60"/>
-      <c r="C294" s="60"/>
-      <c r="D294" s="60"/>
-      <c r="E294" s="60"/>
-      <c r="F294" s="60"/>
-      <c r="G294" s="60"/>
-    </row>
-    <row r="295" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="60"/>
-      <c r="B295" s="60"/>
-      <c r="C295" s="60"/>
-      <c r="D295" s="60"/>
-      <c r="E295" s="60"/>
-      <c r="F295" s="60"/>
-      <c r="G295" s="60"/>
-    </row>
-    <row r="296" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="60"/>
-      <c r="B296" s="60"/>
-      <c r="C296" s="60"/>
-      <c r="D296" s="60"/>
-      <c r="E296" s="60"/>
-      <c r="F296" s="60"/>
-      <c r="G296" s="60"/>
-    </row>
-    <row r="297" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="60"/>
-      <c r="B297" s="60"/>
-      <c r="C297" s="60"/>
-      <c r="D297" s="60"/>
-      <c r="E297" s="60"/>
-      <c r="F297" s="60"/>
-      <c r="G297" s="60"/>
-    </row>
-    <row r="298" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="60"/>
-      <c r="B298" s="60"/>
-      <c r="C298" s="60"/>
-      <c r="D298" s="60"/>
-      <c r="E298" s="60"/>
-      <c r="F298" s="60"/>
-      <c r="G298" s="60"/>
-    </row>
-    <row r="299" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="60"/>
-      <c r="B299" s="60"/>
-      <c r="C299" s="60"/>
-      <c r="D299" s="60"/>
-      <c r="E299" s="60"/>
-      <c r="F299" s="60"/>
-      <c r="G299" s="60"/>
-    </row>
-    <row r="300" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="60"/>
-      <c r="B300" s="60"/>
-      <c r="C300" s="60"/>
-      <c r="D300" s="60"/>
-      <c r="E300" s="60"/>
-      <c r="F300" s="60"/>
-      <c r="G300" s="60"/>
-    </row>
-    <row r="301" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="60"/>
-      <c r="B301" s="60"/>
-      <c r="C301" s="60"/>
-      <c r="D301" s="60"/>
-      <c r="E301" s="60"/>
-      <c r="F301" s="60"/>
-      <c r="G301" s="60"/>
-    </row>
-    <row r="302" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="60"/>
-      <c r="B302" s="60"/>
-      <c r="C302" s="60"/>
-      <c r="D302" s="60"/>
-      <c r="E302" s="60"/>
-      <c r="F302" s="60"/>
-      <c r="G302" s="60"/>
-    </row>
-    <row r="303" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="60"/>
-      <c r="B303" s="60"/>
-      <c r="C303" s="60"/>
-      <c r="D303" s="60"/>
-      <c r="E303" s="60"/>
-      <c r="F303" s="60"/>
-      <c r="G303" s="60"/>
-    </row>
-    <row r="304" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="60"/>
-      <c r="B304" s="60"/>
-      <c r="C304" s="60"/>
-      <c r="D304" s="60"/>
-      <c r="E304" s="60"/>
-      <c r="F304" s="60"/>
-      <c r="G304" s="60"/>
-    </row>
-    <row r="305" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="60"/>
-      <c r="B305" s="60"/>
-      <c r="C305" s="60"/>
-      <c r="D305" s="60"/>
-      <c r="E305" s="60"/>
-      <c r="F305" s="60"/>
-      <c r="G305" s="60"/>
-    </row>
-    <row r="306" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="60"/>
-      <c r="B306" s="60"/>
-      <c r="C306" s="60"/>
-      <c r="D306" s="60"/>
-      <c r="E306" s="60"/>
-      <c r="F306" s="60"/>
-      <c r="G306" s="60"/>
-    </row>
-    <row r="307" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="60"/>
-      <c r="B307" s="60"/>
-      <c r="C307" s="60"/>
-      <c r="D307" s="60"/>
-      <c r="E307" s="60"/>
-      <c r="F307" s="60"/>
-      <c r="G307" s="60"/>
-    </row>
-    <row r="308" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="60"/>
-      <c r="B308" s="60"/>
-      <c r="C308" s="60"/>
-      <c r="D308" s="60"/>
-      <c r="E308" s="60"/>
-      <c r="F308" s="60"/>
-      <c r="G308" s="60"/>
-    </row>
-    <row r="309" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="60"/>
-      <c r="B309" s="60"/>
-      <c r="C309" s="60"/>
-      <c r="D309" s="60"/>
-      <c r="E309" s="60"/>
-      <c r="F309" s="60"/>
-      <c r="G309" s="60"/>
-    </row>
-    <row r="310" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="60"/>
-      <c r="B310" s="60"/>
-      <c r="C310" s="60"/>
-      <c r="D310" s="60"/>
-      <c r="E310" s="60"/>
-      <c r="F310" s="60"/>
-      <c r="G310" s="60"/>
-    </row>
-    <row r="311" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="60"/>
-      <c r="B311" s="60"/>
-      <c r="C311" s="60"/>
-      <c r="D311" s="60"/>
-      <c r="E311" s="60"/>
-      <c r="F311" s="60"/>
-      <c r="G311" s="60"/>
-    </row>
-    <row r="312" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="60"/>
-      <c r="B312" s="60"/>
-      <c r="C312" s="60"/>
-      <c r="D312" s="60"/>
-      <c r="E312" s="60"/>
-      <c r="F312" s="60"/>
-      <c r="G312" s="60"/>
-    </row>
-    <row r="313" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="60"/>
-      <c r="B313" s="60"/>
-      <c r="C313" s="60"/>
-      <c r="D313" s="60"/>
-      <c r="E313" s="60"/>
-      <c r="F313" s="60"/>
-      <c r="G313" s="60"/>
-    </row>
-    <row r="314" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="60"/>
-      <c r="B314" s="60"/>
-      <c r="C314" s="60"/>
-      <c r="D314" s="60"/>
-      <c r="E314" s="60"/>
-      <c r="F314" s="60"/>
-      <c r="G314" s="60"/>
-    </row>
-    <row r="315" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="60"/>
-      <c r="B315" s="60"/>
-      <c r="C315" s="60"/>
-      <c r="D315" s="60"/>
-      <c r="E315" s="60"/>
-      <c r="F315" s="60"/>
-      <c r="G315" s="60"/>
-    </row>
-    <row r="316" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="60"/>
-      <c r="B316" s="60"/>
-      <c r="C316" s="60"/>
-      <c r="D316" s="60"/>
-      <c r="E316" s="60"/>
-      <c r="F316" s="60"/>
-      <c r="G316" s="60"/>
-    </row>
-    <row r="317" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="60"/>
-      <c r="B317" s="60"/>
-      <c r="C317" s="60"/>
-      <c r="D317" s="60"/>
-      <c r="E317" s="60"/>
-      <c r="F317" s="60"/>
-      <c r="G317" s="60"/>
-    </row>
-    <row r="318" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="60"/>
-      <c r="B318" s="60"/>
-      <c r="C318" s="60"/>
-      <c r="D318" s="60"/>
-      <c r="E318" s="60"/>
-      <c r="F318" s="60"/>
-      <c r="G318" s="60"/>
-    </row>
-    <row r="319" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="60"/>
-      <c r="B319" s="60"/>
-      <c r="C319" s="60"/>
-      <c r="D319" s="60"/>
-      <c r="E319" s="60"/>
-      <c r="F319" s="60"/>
-      <c r="G319" s="60"/>
-    </row>
-    <row r="320" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="60"/>
-      <c r="B320" s="60"/>
-      <c r="C320" s="60"/>
-      <c r="D320" s="60"/>
-      <c r="E320" s="60"/>
-      <c r="F320" s="60"/>
-      <c r="G320" s="60"/>
-    </row>
-    <row r="321" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="60"/>
-      <c r="B321" s="60"/>
-      <c r="C321" s="60"/>
-      <c r="D321" s="60"/>
-      <c r="E321" s="60"/>
-      <c r="F321" s="60"/>
-      <c r="G321" s="60"/>
-    </row>
-    <row r="322" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="60"/>
-      <c r="B322" s="60"/>
-      <c r="C322" s="60"/>
-      <c r="D322" s="60"/>
-      <c r="E322" s="60"/>
-      <c r="F322" s="60"/>
-      <c r="G322" s="60"/>
-    </row>
-    <row r="323" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="60"/>
-      <c r="B323" s="60"/>
-      <c r="C323" s="60"/>
-      <c r="D323" s="60"/>
-      <c r="E323" s="60"/>
-      <c r="F323" s="60"/>
-      <c r="G323" s="60"/>
-    </row>
-    <row r="324" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="60"/>
-      <c r="B324" s="60"/>
-      <c r="C324" s="60"/>
-      <c r="D324" s="60"/>
-      <c r="E324" s="60"/>
-      <c r="F324" s="60"/>
-      <c r="G324" s="60"/>
-    </row>
-    <row r="325" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="60"/>
-      <c r="B325" s="60"/>
-      <c r="C325" s="60"/>
-      <c r="D325" s="60"/>
-      <c r="E325" s="60"/>
-      <c r="F325" s="60"/>
-      <c r="G325" s="60"/>
-    </row>
-    <row r="326" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="60"/>
-      <c r="B326" s="60"/>
-      <c r="C326" s="60"/>
-      <c r="D326" s="60"/>
-      <c r="E326" s="60"/>
-      <c r="F326" s="60"/>
-      <c r="G326" s="60"/>
-    </row>
-    <row r="327" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="60"/>
-      <c r="B327" s="60"/>
-      <c r="C327" s="60"/>
-      <c r="D327" s="60"/>
-      <c r="E327" s="60"/>
-      <c r="F327" s="60"/>
-      <c r="G327" s="60"/>
-    </row>
-    <row r="328" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="60"/>
-      <c r="B328" s="60"/>
-      <c r="C328" s="60"/>
-      <c r="D328" s="60"/>
-      <c r="E328" s="60"/>
-      <c r="F328" s="60"/>
-      <c r="G328" s="60"/>
-    </row>
-    <row r="329" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="60"/>
-      <c r="B329" s="60"/>
-      <c r="C329" s="60"/>
-      <c r="D329" s="60"/>
-      <c r="E329" s="60"/>
-      <c r="F329" s="60"/>
-      <c r="G329" s="60"/>
-    </row>
-    <row r="330" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="60"/>
-      <c r="B330" s="60"/>
-      <c r="C330" s="60"/>
-      <c r="D330" s="60"/>
-      <c r="E330" s="60"/>
-      <c r="F330" s="60"/>
-      <c r="G330" s="60"/>
-    </row>
-    <row r="331" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="60"/>
-      <c r="B331" s="60"/>
-      <c r="C331" s="60"/>
-      <c r="D331" s="60"/>
-      <c r="E331" s="60"/>
-      <c r="F331" s="60"/>
-      <c r="G331" s="60"/>
-    </row>
-    <row r="332" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="60"/>
-      <c r="B332" s="60"/>
-      <c r="C332" s="60"/>
-      <c r="D332" s="60"/>
-      <c r="E332" s="60"/>
-      <c r="F332" s="60"/>
-      <c r="G332" s="60"/>
-    </row>
-    <row r="333" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="60"/>
-      <c r="B333" s="60"/>
-      <c r="C333" s="60"/>
-      <c r="D333" s="60"/>
-      <c r="E333" s="60"/>
-      <c r="F333" s="60"/>
-      <c r="G333" s="60"/>
-    </row>
-    <row r="334" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="60"/>
-      <c r="B334" s="60"/>
-      <c r="C334" s="60"/>
-      <c r="D334" s="60"/>
-      <c r="E334" s="60"/>
-      <c r="F334" s="60"/>
-      <c r="G334" s="60"/>
-    </row>
-    <row r="335" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="60"/>
-      <c r="B335" s="60"/>
-      <c r="C335" s="60"/>
-      <c r="D335" s="60"/>
-      <c r="E335" s="60"/>
-      <c r="F335" s="60"/>
-      <c r="G335" s="60"/>
-    </row>
-    <row r="336" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="60"/>
-      <c r="B336" s="60"/>
-      <c r="C336" s="60"/>
-      <c r="D336" s="60"/>
-      <c r="E336" s="60"/>
-      <c r="F336" s="60"/>
-      <c r="G336" s="60"/>
-    </row>
-    <row r="337" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="60"/>
-      <c r="B337" s="60"/>
-      <c r="C337" s="60"/>
-      <c r="D337" s="60"/>
-      <c r="E337" s="60"/>
-      <c r="F337" s="60"/>
-      <c r="G337" s="60"/>
-    </row>
-    <row r="338" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="60"/>
-      <c r="B338" s="60"/>
-      <c r="C338" s="60"/>
-      <c r="D338" s="60"/>
-      <c r="E338" s="60"/>
-      <c r="F338" s="60"/>
-      <c r="G338" s="60"/>
-    </row>
-    <row r="339" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="60"/>
-      <c r="B339" s="60"/>
-      <c r="C339" s="60"/>
-      <c r="D339" s="60"/>
-      <c r="E339" s="60"/>
-      <c r="F339" s="60"/>
-      <c r="G339" s="60"/>
-    </row>
-    <row r="340" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="60"/>
-      <c r="B340" s="60"/>
-      <c r="C340" s="60"/>
-      <c r="D340" s="60"/>
-      <c r="E340" s="60"/>
-      <c r="F340" s="60"/>
-      <c r="G340" s="60"/>
-    </row>
-    <row r="341" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="60"/>
-      <c r="B341" s="60"/>
-      <c r="C341" s="60"/>
-      <c r="D341" s="60"/>
-      <c r="E341" s="60"/>
-      <c r="F341" s="60"/>
-      <c r="G341" s="60"/>
-    </row>
-    <row r="342" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="60"/>
-      <c r="B342" s="60"/>
-      <c r="C342" s="60"/>
-      <c r="D342" s="60"/>
-      <c r="E342" s="60"/>
-      <c r="F342" s="60"/>
-      <c r="G342" s="60"/>
-    </row>
-    <row r="343" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="60"/>
-      <c r="B343" s="60"/>
-      <c r="C343" s="60"/>
-      <c r="D343" s="60"/>
-      <c r="E343" s="60"/>
-      <c r="F343" s="60"/>
-      <c r="G343" s="60"/>
-    </row>
-    <row r="344" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="60"/>
-      <c r="B344" s="60"/>
-      <c r="C344" s="60"/>
-      <c r="D344" s="60"/>
-      <c r="E344" s="60"/>
-      <c r="F344" s="60"/>
-      <c r="G344" s="60"/>
-    </row>
-    <row r="345" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="60"/>
-      <c r="B345" s="60"/>
-      <c r="C345" s="60"/>
-      <c r="D345" s="60"/>
-      <c r="E345" s="60"/>
-      <c r="F345" s="60"/>
-      <c r="G345" s="60"/>
-    </row>
-    <row r="346" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="60"/>
-      <c r="B346" s="60"/>
-      <c r="C346" s="60"/>
-      <c r="D346" s="60"/>
-      <c r="E346" s="60"/>
-      <c r="F346" s="60"/>
-      <c r="G346" s="60"/>
-    </row>
-    <row r="347" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="60"/>
-      <c r="B347" s="60"/>
-      <c r="C347" s="60"/>
-      <c r="D347" s="60"/>
-      <c r="E347" s="60"/>
-      <c r="F347" s="60"/>
-      <c r="G347" s="60"/>
-    </row>
-    <row r="348" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="60"/>
-      <c r="B348" s="60"/>
-      <c r="C348" s="60"/>
-      <c r="D348" s="60"/>
-      <c r="E348" s="60"/>
-      <c r="F348" s="60"/>
-      <c r="G348" s="60"/>
-    </row>
-    <row r="349" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="60"/>
-      <c r="B349" s="60"/>
-      <c r="C349" s="60"/>
-      <c r="D349" s="60"/>
-      <c r="E349" s="60"/>
-      <c r="F349" s="60"/>
-      <c r="G349" s="60"/>
-    </row>
-    <row r="350" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="60"/>
-      <c r="B350" s="60"/>
-      <c r="C350" s="60"/>
-      <c r="D350" s="60"/>
-      <c r="E350" s="60"/>
-      <c r="F350" s="60"/>
-      <c r="G350" s="60"/>
-    </row>
-    <row r="351" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="60"/>
-      <c r="B351" s="60"/>
-      <c r="C351" s="60"/>
-      <c r="D351" s="60"/>
-      <c r="E351" s="60"/>
-      <c r="F351" s="60"/>
-      <c r="G351" s="60"/>
-    </row>
-    <row r="352" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="60"/>
-      <c r="B352" s="60"/>
-      <c r="C352" s="60"/>
-      <c r="D352" s="60"/>
-      <c r="E352" s="60"/>
-      <c r="F352" s="60"/>
-      <c r="G352" s="60"/>
-    </row>
-    <row r="353" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="60"/>
-      <c r="B353" s="60"/>
-      <c r="C353" s="60"/>
-      <c r="D353" s="60"/>
-      <c r="E353" s="60"/>
-      <c r="F353" s="60"/>
-      <c r="G353" s="60"/>
-    </row>
-    <row r="354" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="60"/>
-      <c r="B354" s="60"/>
-      <c r="C354" s="60"/>
-      <c r="D354" s="60"/>
-      <c r="E354" s="60"/>
-      <c r="F354" s="60"/>
-      <c r="G354" s="60"/>
-    </row>
-    <row r="355" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="60"/>
-      <c r="B355" s="60"/>
-      <c r="C355" s="60"/>
-      <c r="D355" s="60"/>
-      <c r="E355" s="60"/>
-      <c r="F355" s="60"/>
-      <c r="G355" s="60"/>
-    </row>
-    <row r="356" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="60"/>
-      <c r="B356" s="60"/>
-      <c r="C356" s="60"/>
-      <c r="D356" s="60"/>
-      <c r="E356" s="60"/>
-      <c r="F356" s="60"/>
-      <c r="G356" s="60"/>
-    </row>
-    <row r="357" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="60"/>
-      <c r="B357" s="60"/>
-      <c r="C357" s="60"/>
-      <c r="D357" s="60"/>
-      <c r="E357" s="60"/>
-      <c r="F357" s="60"/>
-      <c r="G357" s="60"/>
-    </row>
-    <row r="358" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="60"/>
-      <c r="B358" s="60"/>
-      <c r="C358" s="60"/>
-      <c r="D358" s="60"/>
-      <c r="E358" s="60"/>
-      <c r="F358" s="60"/>
-      <c r="G358" s="60"/>
-    </row>
-    <row r="359" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="60"/>
-      <c r="B359" s="60"/>
-      <c r="C359" s="60"/>
-      <c r="D359" s="60"/>
-      <c r="E359" s="60"/>
-      <c r="F359" s="60"/>
-      <c r="G359" s="60"/>
-    </row>
-    <row r="360" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="60"/>
-      <c r="B360" s="60"/>
-      <c r="C360" s="60"/>
-      <c r="D360" s="60"/>
-      <c r="E360" s="60"/>
-      <c r="F360" s="60"/>
-      <c r="G360" s="60"/>
-    </row>
-    <row r="361" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="60"/>
-      <c r="B361" s="60"/>
-      <c r="C361" s="60"/>
-      <c r="D361" s="60"/>
-      <c r="E361" s="60"/>
-      <c r="F361" s="60"/>
-      <c r="G361" s="60"/>
-    </row>
-    <row r="362" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="60"/>
-      <c r="B362" s="60"/>
-      <c r="C362" s="60"/>
-      <c r="D362" s="60"/>
-      <c r="E362" s="60"/>
-      <c r="F362" s="60"/>
-      <c r="G362" s="60"/>
-    </row>
-    <row r="363" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="60"/>
-      <c r="B363" s="60"/>
-      <c r="C363" s="60"/>
-      <c r="D363" s="60"/>
-      <c r="E363" s="60"/>
-      <c r="F363" s="60"/>
-      <c r="G363" s="60"/>
-    </row>
-    <row r="364" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="60"/>
-      <c r="B364" s="60"/>
-      <c r="C364" s="60"/>
-      <c r="D364" s="60"/>
-      <c r="E364" s="60"/>
-      <c r="F364" s="60"/>
-      <c r="G364" s="60"/>
-    </row>
-    <row r="365" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="60"/>
-      <c r="B365" s="60"/>
-      <c r="C365" s="60"/>
-      <c r="D365" s="60"/>
-      <c r="E365" s="60"/>
-      <c r="F365" s="60"/>
-      <c r="G365" s="60"/>
-    </row>
-    <row r="366" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="60"/>
-      <c r="B366" s="60"/>
-      <c r="C366" s="60"/>
-      <c r="D366" s="60"/>
-      <c r="E366" s="60"/>
-      <c r="F366" s="60"/>
-      <c r="G366" s="60"/>
-    </row>
-    <row r="367" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="60"/>
-      <c r="B367" s="60"/>
-      <c r="C367" s="60"/>
-      <c r="D367" s="60"/>
-      <c r="E367" s="60"/>
-      <c r="F367" s="60"/>
-      <c r="G367" s="60"/>
-    </row>
-    <row r="368" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="60"/>
-      <c r="B368" s="60"/>
-      <c r="C368" s="60"/>
-      <c r="D368" s="60"/>
-      <c r="E368" s="60"/>
-      <c r="F368" s="60"/>
-      <c r="G368" s="60"/>
-    </row>
-    <row r="369" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="60"/>
-      <c r="B369" s="60"/>
-      <c r="C369" s="60"/>
-      <c r="D369" s="60"/>
-      <c r="E369" s="60"/>
-      <c r="F369" s="60"/>
-      <c r="G369" s="60"/>
-    </row>
-    <row r="370" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="60"/>
-      <c r="B370" s="60"/>
-      <c r="C370" s="60"/>
-      <c r="D370" s="60"/>
-      <c r="E370" s="60"/>
-      <c r="F370" s="60"/>
-      <c r="G370" s="60"/>
-    </row>
-    <row r="371" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="60"/>
-      <c r="B371" s="60"/>
-      <c r="C371" s="60"/>
-      <c r="D371" s="60"/>
-      <c r="E371" s="60"/>
-      <c r="F371" s="60"/>
-      <c r="G371" s="60"/>
-    </row>
-    <row r="372" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="60"/>
-      <c r="B372" s="60"/>
-      <c r="C372" s="60"/>
-      <c r="D372" s="60"/>
-      <c r="E372" s="60"/>
-      <c r="F372" s="60"/>
-      <c r="G372" s="60"/>
-    </row>
-    <row r="373" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="60"/>
-      <c r="B373" s="60"/>
-      <c r="C373" s="60"/>
-      <c r="D373" s="60"/>
-      <c r="E373" s="60"/>
-      <c r="F373" s="60"/>
-      <c r="G373" s="60"/>
-    </row>
-    <row r="374" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="60"/>
-      <c r="B374" s="60"/>
-      <c r="C374" s="60"/>
-      <c r="D374" s="60"/>
-      <c r="E374" s="60"/>
-      <c r="F374" s="60"/>
-      <c r="G374" s="60"/>
-    </row>
-    <row r="375" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="60"/>
-      <c r="B375" s="60"/>
-      <c r="C375" s="60"/>
-      <c r="D375" s="60"/>
-      <c r="E375" s="60"/>
-      <c r="F375" s="60"/>
-      <c r="G375" s="60"/>
-    </row>
-    <row r="376" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="60"/>
-      <c r="B376" s="60"/>
-      <c r="C376" s="60"/>
-      <c r="D376" s="60"/>
-      <c r="E376" s="60"/>
-      <c r="F376" s="60"/>
-      <c r="G376" s="60"/>
-    </row>
-    <row r="377" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="60"/>
-      <c r="B377" s="60"/>
-      <c r="C377" s="60"/>
-      <c r="D377" s="60"/>
-      <c r="E377" s="60"/>
-      <c r="F377" s="60"/>
-      <c r="G377" s="60"/>
-    </row>
-    <row r="378" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="60"/>
-      <c r="B378" s="60"/>
-      <c r="C378" s="60"/>
-      <c r="D378" s="60"/>
-      <c r="E378" s="60"/>
-      <c r="F378" s="60"/>
-      <c r="G378" s="60"/>
-    </row>
-    <row r="379" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="60"/>
-      <c r="B379" s="60"/>
-      <c r="C379" s="60"/>
-      <c r="D379" s="60"/>
-      <c r="E379" s="60"/>
-      <c r="F379" s="60"/>
-      <c r="G379" s="60"/>
-    </row>
-    <row r="380" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="60"/>
-      <c r="B380" s="60"/>
-      <c r="C380" s="60"/>
-      <c r="D380" s="60"/>
-      <c r="E380" s="60"/>
-      <c r="F380" s="60"/>
-      <c r="G380" s="60"/>
-    </row>
-    <row r="381" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="60"/>
-      <c r="B381" s="60"/>
-      <c r="C381" s="60"/>
-      <c r="D381" s="60"/>
-      <c r="E381" s="60"/>
-      <c r="F381" s="60"/>
-      <c r="G381" s="60"/>
-    </row>
-    <row r="382" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="60"/>
-      <c r="B382" s="60"/>
-      <c r="C382" s="60"/>
-      <c r="D382" s="60"/>
-      <c r="E382" s="60"/>
-      <c r="F382" s="60"/>
-      <c r="G382" s="60"/>
-    </row>
-    <row r="383" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="60"/>
-      <c r="B383" s="60"/>
-      <c r="C383" s="60"/>
-      <c r="D383" s="60"/>
-      <c r="E383" s="60"/>
-      <c r="F383" s="60"/>
-      <c r="G383" s="60"/>
-    </row>
-    <row r="384" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="60"/>
-      <c r="B384" s="60"/>
-      <c r="C384" s="60"/>
-      <c r="D384" s="60"/>
-      <c r="E384" s="60"/>
-      <c r="F384" s="60"/>
-      <c r="G384" s="60"/>
-    </row>
-    <row r="385" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="60"/>
-      <c r="B385" s="60"/>
-      <c r="C385" s="60"/>
-      <c r="D385" s="60"/>
-      <c r="E385" s="60"/>
-      <c r="F385" s="60"/>
-      <c r="G385" s="60"/>
-    </row>
-    <row r="386" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="60"/>
-      <c r="B386" s="60"/>
-      <c r="C386" s="60"/>
-      <c r="D386" s="60"/>
-      <c r="E386" s="60"/>
-      <c r="F386" s="60"/>
-      <c r="G386" s="60"/>
-    </row>
-    <row r="387" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="60"/>
-      <c r="B387" s="60"/>
-      <c r="C387" s="60"/>
-      <c r="D387" s="60"/>
-      <c r="E387" s="60"/>
-      <c r="F387" s="60"/>
-      <c r="G387" s="60"/>
-    </row>
-    <row r="388" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="60"/>
-      <c r="B388" s="60"/>
-      <c r="C388" s="60"/>
-      <c r="D388" s="60"/>
-      <c r="E388" s="60"/>
-      <c r="F388" s="60"/>
-      <c r="G388" s="60"/>
-    </row>
-    <row r="389" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="60"/>
-      <c r="B389" s="60"/>
-      <c r="C389" s="60"/>
-      <c r="D389" s="60"/>
-      <c r="E389" s="60"/>
-      <c r="F389" s="60"/>
-      <c r="G389" s="60"/>
-    </row>
-    <row r="390" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="60"/>
-      <c r="B390" s="60"/>
-      <c r="C390" s="60"/>
-      <c r="D390" s="60"/>
-      <c r="E390" s="60"/>
-      <c r="F390" s="60"/>
-      <c r="G390" s="60"/>
-    </row>
-    <row r="391" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="60"/>
-      <c r="B391" s="60"/>
-      <c r="C391" s="60"/>
-      <c r="D391" s="60"/>
-      <c r="E391" s="60"/>
-      <c r="F391" s="60"/>
-      <c r="G391" s="60"/>
-    </row>
-    <row r="392" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="60"/>
-      <c r="B392" s="60"/>
-      <c r="C392" s="60"/>
-      <c r="D392" s="60"/>
-      <c r="E392" s="60"/>
-      <c r="F392" s="60"/>
-      <c r="G392" s="60"/>
-    </row>
-    <row r="393" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="60"/>
-      <c r="B393" s="60"/>
-      <c r="C393" s="60"/>
-      <c r="D393" s="60"/>
-      <c r="E393" s="60"/>
-      <c r="F393" s="60"/>
-      <c r="G393" s="60"/>
-    </row>
-    <row r="394" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="60"/>
-      <c r="B394" s="60"/>
-      <c r="C394" s="60"/>
-      <c r="D394" s="60"/>
-      <c r="E394" s="60"/>
-      <c r="F394" s="60"/>
-      <c r="G394" s="60"/>
-    </row>
-    <row r="395" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="60"/>
-      <c r="B395" s="60"/>
-      <c r="C395" s="60"/>
-      <c r="D395" s="60"/>
-      <c r="E395" s="60"/>
-      <c r="F395" s="60"/>
-      <c r="G395" s="60"/>
-    </row>
-    <row r="396" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="60"/>
-      <c r="B396" s="60"/>
-      <c r="C396" s="60"/>
-      <c r="D396" s="60"/>
-      <c r="E396" s="60"/>
-      <c r="F396" s="60"/>
-      <c r="G396" s="60"/>
-    </row>
-    <row r="397" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="60"/>
-      <c r="B397" s="60"/>
-      <c r="C397" s="60"/>
-      <c r="D397" s="60"/>
-      <c r="E397" s="60"/>
-      <c r="F397" s="60"/>
-      <c r="G397" s="60"/>
-    </row>
-    <row r="398" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="60"/>
-      <c r="B398" s="60"/>
-      <c r="C398" s="60"/>
-      <c r="D398" s="60"/>
-      <c r="E398" s="60"/>
-      <c r="F398" s="60"/>
-      <c r="G398" s="60"/>
-    </row>
-    <row r="399" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="60"/>
-      <c r="B399" s="60"/>
-      <c r="C399" s="60"/>
-      <c r="D399" s="60"/>
-      <c r="E399" s="60"/>
-      <c r="F399" s="60"/>
-      <c r="G399" s="60"/>
-    </row>
-    <row r="400" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="60"/>
-      <c r="B400" s="60"/>
-      <c r="C400" s="60"/>
-      <c r="D400" s="60"/>
-      <c r="E400" s="60"/>
-      <c r="F400" s="60"/>
-      <c r="G400" s="60"/>
-    </row>
-    <row r="401" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="60"/>
-      <c r="B401" s="60"/>
-      <c r="C401" s="60"/>
-      <c r="D401" s="60"/>
-      <c r="E401" s="60"/>
-      <c r="F401" s="60"/>
-      <c r="G401" s="60"/>
-    </row>
-    <row r="402" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="60"/>
-      <c r="B402" s="60"/>
-      <c r="C402" s="60"/>
-      <c r="D402" s="60"/>
-      <c r="E402" s="60"/>
-      <c r="F402" s="60"/>
-      <c r="G402" s="60"/>
-    </row>
-    <row r="403" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="60"/>
-      <c r="B403" s="60"/>
-      <c r="C403" s="60"/>
-      <c r="D403" s="60"/>
-      <c r="E403" s="60"/>
-      <c r="F403" s="60"/>
-      <c r="G403" s="60"/>
-    </row>
-    <row r="404" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="60"/>
-      <c r="B404" s="60"/>
-      <c r="C404" s="60"/>
-      <c r="D404" s="60"/>
-      <c r="E404" s="60"/>
-      <c r="F404" s="60"/>
-      <c r="G404" s="60"/>
-    </row>
-    <row r="405" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="60"/>
-      <c r="B405" s="60"/>
-      <c r="C405" s="60"/>
-      <c r="D405" s="60"/>
-      <c r="E405" s="60"/>
-      <c r="F405" s="60"/>
-      <c r="G405" s="60"/>
-    </row>
-    <row r="406" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="60"/>
-      <c r="B406" s="60"/>
-      <c r="C406" s="60"/>
-      <c r="D406" s="60"/>
-      <c r="E406" s="60"/>
-      <c r="F406" s="60"/>
-      <c r="G406" s="60"/>
-    </row>
-    <row r="407" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="60"/>
-      <c r="B407" s="60"/>
-      <c r="C407" s="60"/>
-      <c r="D407" s="60"/>
-      <c r="E407" s="60"/>
-      <c r="F407" s="60"/>
-      <c r="G407" s="60"/>
-    </row>
-    <row r="408" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="60"/>
-      <c r="B408" s="60"/>
-      <c r="C408" s="60"/>
-      <c r="D408" s="60"/>
-      <c r="E408" s="60"/>
-      <c r="F408" s="60"/>
-      <c r="G408" s="60"/>
-    </row>
-    <row r="409" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="60"/>
-      <c r="B409" s="60"/>
-      <c r="C409" s="60"/>
-      <c r="D409" s="60"/>
-      <c r="E409" s="60"/>
-      <c r="F409" s="60"/>
-      <c r="G409" s="60"/>
-    </row>
-    <row r="410" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="60"/>
-      <c r="B410" s="60"/>
-      <c r="C410" s="60"/>
-      <c r="D410" s="60"/>
-      <c r="E410" s="60"/>
-      <c r="F410" s="60"/>
-      <c r="G410" s="60"/>
-    </row>
-    <row r="411" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="60"/>
-      <c r="B411" s="60"/>
-      <c r="C411" s="60"/>
-      <c r="D411" s="60"/>
-      <c r="E411" s="60"/>
-      <c r="F411" s="60"/>
-      <c r="G411" s="60"/>
-    </row>
-    <row r="412" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="60"/>
-      <c r="B412" s="60"/>
-      <c r="C412" s="60"/>
-      <c r="D412" s="60"/>
-      <c r="E412" s="60"/>
-      <c r="F412" s="60"/>
-      <c r="G412" s="60"/>
-    </row>
-    <row r="413" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="60"/>
-      <c r="B413" s="60"/>
-      <c r="C413" s="60"/>
-      <c r="D413" s="60"/>
-      <c r="E413" s="60"/>
-      <c r="F413" s="60"/>
-      <c r="G413" s="60"/>
-    </row>
-    <row r="414" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="60"/>
-      <c r="B414" s="60"/>
-      <c r="C414" s="60"/>
-      <c r="D414" s="60"/>
-      <c r="E414" s="60"/>
-      <c r="F414" s="60"/>
-      <c r="G414" s="60"/>
-    </row>
-    <row r="415" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="60"/>
-      <c r="B415" s="60"/>
-      <c r="C415" s="60"/>
-      <c r="D415" s="60"/>
-      <c r="E415" s="60"/>
-      <c r="F415" s="60"/>
-      <c r="G415" s="60"/>
-    </row>
-    <row r="416" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="60"/>
-      <c r="B416" s="60"/>
-      <c r="C416" s="60"/>
-      <c r="D416" s="60"/>
-      <c r="E416" s="60"/>
-      <c r="F416" s="60"/>
-      <c r="G416" s="60"/>
-    </row>
-    <row r="417" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="60"/>
-      <c r="B417" s="60"/>
-      <c r="C417" s="60"/>
-      <c r="D417" s="60"/>
-      <c r="E417" s="60"/>
-      <c r="F417" s="60"/>
-      <c r="G417" s="60"/>
-    </row>
-    <row r="418" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="60"/>
-      <c r="B418" s="60"/>
-      <c r="C418" s="60"/>
-      <c r="D418" s="60"/>
-      <c r="E418" s="60"/>
-      <c r="F418" s="60"/>
-      <c r="G418" s="60"/>
-    </row>
-    <row r="419" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="60"/>
-      <c r="B419" s="60"/>
-      <c r="C419" s="60"/>
-      <c r="D419" s="60"/>
-      <c r="E419" s="60"/>
-      <c r="F419" s="60"/>
-      <c r="G419" s="60"/>
-    </row>
-    <row r="420" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="60"/>
-      <c r="B420" s="60"/>
-      <c r="C420" s="60"/>
-      <c r="D420" s="60"/>
-      <c r="E420" s="60"/>
-      <c r="F420" s="60"/>
-      <c r="G420" s="60"/>
-    </row>
-    <row r="421" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="60"/>
-      <c r="B421" s="60"/>
-      <c r="C421" s="60"/>
-      <c r="D421" s="60"/>
-      <c r="E421" s="60"/>
-      <c r="F421" s="60"/>
-      <c r="G421" s="60"/>
-    </row>
-    <row r="422" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="60"/>
-      <c r="B422" s="60"/>
-      <c r="C422" s="60"/>
-      <c r="D422" s="60"/>
-      <c r="E422" s="60"/>
-      <c r="F422" s="60"/>
-      <c r="G422" s="60"/>
-    </row>
-    <row r="423" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="60"/>
-      <c r="B423" s="60"/>
-      <c r="C423" s="60"/>
-      <c r="D423" s="60"/>
-      <c r="E423" s="60"/>
-      <c r="F423" s="60"/>
-      <c r="G423" s="60"/>
-    </row>
-    <row r="424" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="60"/>
-      <c r="B424" s="60"/>
-      <c r="C424" s="60"/>
-      <c r="D424" s="60"/>
-      <c r="E424" s="60"/>
-      <c r="F424" s="60"/>
-      <c r="G424" s="60"/>
-    </row>
-    <row r="425" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="60"/>
-      <c r="B425" s="60"/>
-      <c r="C425" s="60"/>
-      <c r="D425" s="60"/>
-      <c r="E425" s="60"/>
-      <c r="F425" s="60"/>
-      <c r="G425" s="60"/>
-    </row>
-    <row r="426" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="60"/>
-      <c r="B426" s="60"/>
-      <c r="C426" s="60"/>
-      <c r="D426" s="60"/>
-      <c r="E426" s="60"/>
-      <c r="F426" s="60"/>
-      <c r="G426" s="60"/>
-    </row>
-    <row r="427" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="60"/>
-      <c r="B427" s="60"/>
-      <c r="C427" s="60"/>
-      <c r="D427" s="60"/>
-      <c r="E427" s="60"/>
-      <c r="F427" s="60"/>
-      <c r="G427" s="60"/>
-    </row>
-    <row r="428" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="60"/>
-      <c r="B428" s="60"/>
-      <c r="C428" s="60"/>
-      <c r="D428" s="60"/>
-      <c r="E428" s="60"/>
-      <c r="F428" s="60"/>
-      <c r="G428" s="60"/>
-    </row>
-    <row r="429" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="60"/>
-      <c r="B429" s="60"/>
-      <c r="C429" s="60"/>
-      <c r="D429" s="60"/>
-      <c r="E429" s="60"/>
-      <c r="F429" s="60"/>
-      <c r="G429" s="60"/>
-    </row>
-    <row r="430" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="60"/>
-      <c r="B430" s="60"/>
-      <c r="C430" s="60"/>
-      <c r="D430" s="60"/>
-      <c r="E430" s="60"/>
-      <c r="F430" s="60"/>
-      <c r="G430" s="60"/>
-    </row>
-    <row r="431" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="60"/>
-      <c r="B431" s="60"/>
-      <c r="C431" s="60"/>
-      <c r="D431" s="60"/>
-      <c r="E431" s="60"/>
-      <c r="F431" s="60"/>
-      <c r="G431" s="60"/>
-    </row>
-    <row r="432" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="60"/>
-      <c r="B432" s="60"/>
-      <c r="C432" s="60"/>
-      <c r="D432" s="60"/>
-      <c r="E432" s="60"/>
-      <c r="F432" s="60"/>
-      <c r="G432" s="60"/>
-    </row>
-    <row r="433" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="60"/>
-      <c r="B433" s="60"/>
-      <c r="C433" s="60"/>
-      <c r="D433" s="60"/>
-      <c r="E433" s="60"/>
-      <c r="F433" s="60"/>
-      <c r="G433" s="60"/>
-    </row>
-    <row r="434" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="60"/>
-      <c r="B434" s="60"/>
-      <c r="C434" s="60"/>
-      <c r="D434" s="60"/>
-      <c r="E434" s="60"/>
-      <c r="F434" s="60"/>
-      <c r="G434" s="60"/>
-    </row>
-    <row r="435" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="60"/>
-      <c r="B435" s="60"/>
-      <c r="C435" s="60"/>
-      <c r="D435" s="60"/>
-      <c r="E435" s="60"/>
-      <c r="F435" s="60"/>
-      <c r="G435" s="60"/>
-    </row>
-    <row r="436" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="60"/>
-      <c r="B436" s="60"/>
-      <c r="C436" s="60"/>
-      <c r="D436" s="60"/>
-      <c r="E436" s="60"/>
-      <c r="F436" s="60"/>
-      <c r="G436" s="60"/>
-    </row>
-    <row r="437" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="60"/>
-      <c r="B437" s="60"/>
-      <c r="C437" s="60"/>
-      <c r="D437" s="60"/>
-      <c r="E437" s="60"/>
-      <c r="F437" s="60"/>
-      <c r="G437" s="60"/>
-    </row>
-    <row r="438" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="60"/>
-      <c r="B438" s="60"/>
-      <c r="C438" s="60"/>
-      <c r="D438" s="60"/>
-      <c r="E438" s="60"/>
-      <c r="F438" s="60"/>
-      <c r="G438" s="60"/>
-    </row>
-    <row r="439" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="60"/>
-      <c r="B439" s="60"/>
-      <c r="C439" s="60"/>
-      <c r="D439" s="60"/>
-      <c r="E439" s="60"/>
-      <c r="F439" s="60"/>
-      <c r="G439" s="60"/>
-    </row>
-    <row r="440" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="60"/>
-      <c r="B440" s="60"/>
-      <c r="C440" s="60"/>
-      <c r="D440" s="60"/>
-      <c r="E440" s="60"/>
-      <c r="F440" s="60"/>
-      <c r="G440" s="60"/>
-    </row>
-    <row r="441" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="60"/>
-      <c r="B441" s="60"/>
-      <c r="C441" s="60"/>
-      <c r="D441" s="60"/>
-      <c r="E441" s="60"/>
-      <c r="F441" s="60"/>
-      <c r="G441" s="60"/>
-    </row>
-    <row r="442" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="60"/>
-      <c r="B442" s="60"/>
-      <c r="C442" s="60"/>
-      <c r="D442" s="60"/>
-      <c r="E442" s="60"/>
-      <c r="F442" s="60"/>
-      <c r="G442" s="60"/>
-    </row>
-    <row r="443" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="60"/>
-      <c r="B443" s="60"/>
-      <c r="C443" s="60"/>
-      <c r="D443" s="60"/>
-      <c r="E443" s="60"/>
-      <c r="F443" s="60"/>
-      <c r="G443" s="60"/>
-    </row>
-    <row r="444" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="60"/>
-      <c r="B444" s="60"/>
-      <c r="C444" s="60"/>
-      <c r="D444" s="60"/>
-      <c r="E444" s="60"/>
-      <c r="F444" s="60"/>
-      <c r="G444" s="60"/>
-    </row>
-    <row r="445" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="60"/>
-      <c r="B445" s="60"/>
-      <c r="C445" s="60"/>
-      <c r="D445" s="60"/>
-      <c r="E445" s="60"/>
-      <c r="F445" s="60"/>
-      <c r="G445" s="60"/>
-    </row>
-    <row r="446" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="60"/>
-      <c r="B446" s="60"/>
-      <c r="C446" s="60"/>
-      <c r="D446" s="60"/>
-      <c r="E446" s="60"/>
-      <c r="F446" s="60"/>
-      <c r="G446" s="60"/>
-    </row>
-    <row r="447" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="60"/>
-      <c r="B447" s="60"/>
-      <c r="C447" s="60"/>
-      <c r="D447" s="60"/>
-      <c r="E447" s="60"/>
-      <c r="F447" s="60"/>
-      <c r="G447" s="60"/>
-    </row>
-    <row r="448" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="60"/>
-      <c r="B448" s="60"/>
-      <c r="C448" s="60"/>
-      <c r="D448" s="60"/>
-      <c r="E448" s="60"/>
-      <c r="F448" s="60"/>
-      <c r="G448" s="60"/>
-    </row>
+    <row r="280" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8571,15 +9423,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="662ed8be-3c07-4514-9faf-3eefeed40b65" xsi:nil="true"/>
@@ -8590,14 +9433,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8915B9-FB9A-4C72-99C0-50DA6703BC01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8915B9-FB9A-4C72-99C0-50DA6703BC01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d72d6bc0-6e15-484f-b0bd-2466f1901205"/>
+    <ds:schemaRef ds:uri="662ed8be-3c07-4514-9faf-3eefeed40b65"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{637ED1C5-B9E1-4D3C-A5A7-E6AD33295A0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E88EB5B-373D-42B1-8D97-EAFB693C7980}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="662ed8be-3c07-4514-9faf-3eefeed40b65"/>
+    <ds:schemaRef ds:uri="d72d6bc0-6e15-484f-b0bd-2466f1901205"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E88EB5B-373D-42B1-8D97-EAFB693C7980}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{637ED1C5-B9E1-4D3C-A5A7-E6AD33295A0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>